--- a/attendance/src/main/resources/LeaveDeductions.xlsx
+++ b/attendance/src/main/resources/LeaveDeductions.xlsx
@@ -1271,12 +1271,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -1286,10 +1286,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H268"/>
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D103" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E112" activeCellId="0" sqref="E112:E118"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4372,756 +4372,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="2"/>
-      <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
-    </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="2"/>
-      <c r="B120" s="2"/>
-      <c r="C120" s="2"/>
-    </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="2"/>
-      <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
-    </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="2"/>
-      <c r="B122" s="2"/>
-      <c r="C122" s="2"/>
-    </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="2"/>
-      <c r="B123" s="2"/>
-      <c r="C123" s="2"/>
-    </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="2"/>
-      <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
-    </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="2"/>
-      <c r="B125" s="2"/>
-      <c r="C125" s="2"/>
-    </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="2"/>
-      <c r="B126" s="2"/>
-      <c r="C126" s="2"/>
-    </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="2"/>
-      <c r="B127" s="2"/>
-      <c r="C127" s="2"/>
-    </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A128" s="2"/>
-      <c r="B128" s="2"/>
-      <c r="C128" s="2"/>
-    </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="2"/>
-      <c r="B129" s="2"/>
-      <c r="C129" s="2"/>
-    </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="2"/>
-      <c r="B130" s="2"/>
-      <c r="C130" s="2"/>
-    </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="2"/>
-      <c r="B131" s="2"/>
-      <c r="C131" s="2"/>
-    </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="2"/>
-      <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
-    </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="2"/>
-      <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
-    </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="2"/>
-      <c r="B134" s="2"/>
-      <c r="C134" s="2"/>
-    </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="2"/>
-      <c r="B135" s="2"/>
-      <c r="C135" s="2"/>
-    </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="2"/>
-      <c r="B136" s="2"/>
-      <c r="C136" s="2"/>
-    </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="2"/>
-      <c r="B137" s="2"/>
-      <c r="C137" s="2"/>
-    </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="2"/>
-      <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
-    </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="2"/>
-      <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
-    </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="2"/>
-      <c r="B140" s="2"/>
-      <c r="C140" s="2"/>
-    </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="2"/>
-      <c r="B141" s="2"/>
-      <c r="C141" s="2"/>
-    </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A142" s="2"/>
-      <c r="B142" s="2"/>
-      <c r="C142" s="2"/>
-    </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A143" s="2"/>
-      <c r="B143" s="2"/>
-      <c r="C143" s="2"/>
-    </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A144" s="2"/>
-      <c r="B144" s="2"/>
-      <c r="C144" s="2"/>
-    </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="2"/>
-      <c r="B145" s="2"/>
-      <c r="C145" s="2"/>
-    </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="2"/>
-      <c r="B146" s="2"/>
-      <c r="C146" s="2"/>
-    </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="2"/>
-      <c r="B147" s="2"/>
-      <c r="C147" s="2"/>
-    </row>
-    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A148" s="2"/>
-      <c r="B148" s="2"/>
-      <c r="C148" s="2"/>
-    </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A149" s="2"/>
-      <c r="B149" s="2"/>
-      <c r="C149" s="2"/>
-    </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A150" s="2"/>
-      <c r="B150" s="2"/>
-      <c r="C150" s="2"/>
-    </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A151" s="2"/>
-      <c r="B151" s="2"/>
-      <c r="C151" s="2"/>
-    </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A152" s="2"/>
-      <c r="B152" s="2"/>
-      <c r="C152" s="2"/>
-    </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A153" s="2"/>
-      <c r="B153" s="2"/>
-      <c r="C153" s="2"/>
-    </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A154" s="2"/>
-      <c r="B154" s="2"/>
-      <c r="C154" s="2"/>
-    </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A155" s="2"/>
-      <c r="B155" s="2"/>
-      <c r="C155" s="2"/>
-    </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A156" s="2"/>
-      <c r="B156" s="2"/>
-      <c r="C156" s="2"/>
-    </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A157" s="2"/>
-      <c r="B157" s="2"/>
-      <c r="C157" s="2"/>
-    </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A158" s="2"/>
-      <c r="B158" s="2"/>
-      <c r="C158" s="2"/>
-    </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A159" s="2"/>
-      <c r="B159" s="2"/>
-      <c r="C159" s="2"/>
-    </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A160" s="2"/>
-      <c r="B160" s="2"/>
-      <c r="C160" s="2"/>
-    </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A161" s="2"/>
-      <c r="B161" s="2"/>
-      <c r="C161" s="2"/>
-    </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A162" s="2"/>
-      <c r="B162" s="2"/>
-      <c r="C162" s="2"/>
-    </row>
-    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A163" s="2"/>
-      <c r="B163" s="2"/>
-      <c r="C163" s="2"/>
-    </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A164" s="2"/>
-      <c r="B164" s="2"/>
-      <c r="C164" s="2"/>
-    </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A165" s="2"/>
-      <c r="B165" s="2"/>
-      <c r="C165" s="2"/>
-    </row>
-    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A166" s="2"/>
-      <c r="B166" s="2"/>
-      <c r="C166" s="2"/>
-    </row>
-    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A167" s="2"/>
-      <c r="B167" s="2"/>
-      <c r="C167" s="2"/>
-    </row>
-    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A168" s="2"/>
-      <c r="B168" s="2"/>
-      <c r="C168" s="2"/>
-    </row>
-    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A169" s="2"/>
-      <c r="B169" s="2"/>
-      <c r="C169" s="2"/>
-    </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A170" s="2"/>
-      <c r="B170" s="2"/>
-      <c r="C170" s="2"/>
-    </row>
-    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A171" s="2"/>
-      <c r="B171" s="2"/>
-      <c r="C171" s="2"/>
-    </row>
-    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A172" s="2"/>
-      <c r="B172" s="2"/>
-      <c r="C172" s="2"/>
-    </row>
-    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A173" s="2"/>
-      <c r="B173" s="2"/>
-      <c r="C173" s="2"/>
-    </row>
-    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A174" s="2"/>
-      <c r="B174" s="2"/>
-      <c r="C174" s="2"/>
-    </row>
-    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A175" s="2"/>
-      <c r="B175" s="2"/>
-      <c r="C175" s="2"/>
-    </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A176" s="2"/>
-      <c r="B176" s="2"/>
-      <c r="C176" s="2"/>
-    </row>
-    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A177" s="2"/>
-      <c r="B177" s="2"/>
-      <c r="C177" s="2"/>
-    </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A178" s="2"/>
-      <c r="B178" s="2"/>
-      <c r="C178" s="2"/>
-    </row>
-    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A179" s="2"/>
-      <c r="B179" s="2"/>
-      <c r="C179" s="2"/>
-    </row>
-    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A180" s="2"/>
-      <c r="B180" s="2"/>
-      <c r="C180" s="2"/>
-    </row>
-    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A181" s="2"/>
-      <c r="B181" s="2"/>
-      <c r="C181" s="2"/>
-    </row>
-    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A182" s="2"/>
-      <c r="B182" s="2"/>
-      <c r="C182" s="2"/>
-    </row>
-    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A183" s="2"/>
-      <c r="B183" s="2"/>
-      <c r="C183" s="2"/>
-    </row>
-    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A184" s="2"/>
-      <c r="B184" s="2"/>
-      <c r="C184" s="2"/>
-    </row>
-    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A185" s="2"/>
-      <c r="B185" s="2"/>
-      <c r="C185" s="2"/>
-    </row>
-    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A186" s="2"/>
-      <c r="B186" s="2"/>
-      <c r="C186" s="2"/>
-    </row>
-    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A187" s="2"/>
-      <c r="B187" s="2"/>
-      <c r="C187" s="2"/>
-    </row>
-    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A188" s="2"/>
-      <c r="B188" s="2"/>
-      <c r="C188" s="2"/>
-    </row>
-    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A189" s="2"/>
-      <c r="B189" s="2"/>
-      <c r="C189" s="2"/>
-    </row>
-    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A190" s="2"/>
-      <c r="B190" s="2"/>
-      <c r="C190" s="2"/>
-    </row>
-    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A191" s="2"/>
-      <c r="B191" s="2"/>
-      <c r="C191" s="2"/>
-    </row>
-    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A192" s="2"/>
-      <c r="B192" s="2"/>
-      <c r="C192" s="2"/>
-    </row>
-    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A193" s="2"/>
-      <c r="B193" s="2"/>
-      <c r="C193" s="2"/>
-    </row>
-    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A194" s="2"/>
-      <c r="B194" s="2"/>
-      <c r="C194" s="2"/>
-    </row>
-    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A195" s="2"/>
-      <c r="B195" s="2"/>
-      <c r="C195" s="2"/>
-    </row>
-    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A196" s="2"/>
-      <c r="B196" s="2"/>
-      <c r="C196" s="2"/>
-    </row>
-    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A197" s="2"/>
-      <c r="B197" s="2"/>
-      <c r="C197" s="2"/>
-    </row>
-    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A198" s="2"/>
-      <c r="B198" s="2"/>
-      <c r="C198" s="2"/>
-    </row>
-    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A199" s="2"/>
-      <c r="B199" s="2"/>
-      <c r="C199" s="2"/>
-    </row>
-    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A200" s="2"/>
-      <c r="B200" s="2"/>
-      <c r="C200" s="2"/>
-    </row>
-    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A201" s="2"/>
-      <c r="B201" s="2"/>
-      <c r="C201" s="2"/>
-    </row>
-    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A202" s="2"/>
-      <c r="B202" s="2"/>
-      <c r="C202" s="2"/>
-    </row>
-    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A203" s="2"/>
-      <c r="B203" s="2"/>
-      <c r="C203" s="2"/>
-    </row>
-    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A204" s="2"/>
-      <c r="B204" s="2"/>
-      <c r="C204" s="2"/>
-    </row>
-    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A205" s="2"/>
-      <c r="B205" s="2"/>
-      <c r="C205" s="2"/>
-    </row>
-    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A206" s="2"/>
-      <c r="B206" s="2"/>
-      <c r="C206" s="2"/>
-    </row>
-    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A207" s="2"/>
-      <c r="B207" s="2"/>
-      <c r="C207" s="2"/>
-    </row>
-    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A208" s="2"/>
-      <c r="B208" s="2"/>
-      <c r="C208" s="2"/>
-    </row>
-    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A209" s="2"/>
-      <c r="B209" s="2"/>
-      <c r="C209" s="2"/>
-    </row>
-    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A210" s="2"/>
-      <c r="B210" s="2"/>
-      <c r="C210" s="2"/>
-    </row>
-    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A211" s="2"/>
-      <c r="B211" s="2"/>
-      <c r="C211" s="2"/>
-    </row>
-    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A212" s="2"/>
-      <c r="B212" s="2"/>
-      <c r="C212" s="2"/>
-    </row>
-    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A213" s="2"/>
-      <c r="B213" s="2"/>
-      <c r="C213" s="2"/>
-    </row>
-    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A214" s="2"/>
-      <c r="B214" s="2"/>
-      <c r="C214" s="2"/>
-    </row>
-    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A215" s="2"/>
-      <c r="B215" s="2"/>
-      <c r="C215" s="2"/>
-    </row>
-    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A216" s="2"/>
-      <c r="B216" s="2"/>
-      <c r="C216" s="2"/>
-    </row>
-    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A217" s="2"/>
-      <c r="B217" s="2"/>
-      <c r="C217" s="2"/>
-    </row>
-    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A218" s="2"/>
-      <c r="B218" s="2"/>
-      <c r="C218" s="2"/>
-    </row>
-    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A219" s="2"/>
-      <c r="B219" s="2"/>
-      <c r="C219" s="2"/>
-    </row>
-    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A220" s="2"/>
-      <c r="B220" s="2"/>
-      <c r="C220" s="2"/>
-    </row>
-    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A221" s="2"/>
-      <c r="B221" s="2"/>
-      <c r="C221" s="2"/>
-    </row>
-    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A222" s="2"/>
-      <c r="B222" s="2"/>
-      <c r="C222" s="2"/>
-    </row>
-    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A223" s="2"/>
-      <c r="B223" s="2"/>
-      <c r="C223" s="2"/>
-    </row>
-    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A224" s="2"/>
-      <c r="B224" s="2"/>
-      <c r="C224" s="2"/>
-    </row>
-    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A225" s="2"/>
-      <c r="B225" s="2"/>
-      <c r="C225" s="2"/>
-    </row>
-    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A226" s="2"/>
-      <c r="B226" s="2"/>
-      <c r="C226" s="2"/>
-    </row>
-    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A227" s="2"/>
-      <c r="B227" s="2"/>
-      <c r="C227" s="2"/>
-    </row>
-    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A228" s="2"/>
-      <c r="B228" s="2"/>
-      <c r="C228" s="2"/>
-    </row>
-    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A229" s="2"/>
-      <c r="B229" s="2"/>
-      <c r="C229" s="2"/>
-    </row>
-    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A230" s="2"/>
-      <c r="B230" s="2"/>
-      <c r="C230" s="2"/>
-    </row>
-    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A231" s="2"/>
-      <c r="B231" s="2"/>
-      <c r="C231" s="2"/>
-    </row>
-    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A232" s="2"/>
-      <c r="B232" s="2"/>
-      <c r="C232" s="2"/>
-    </row>
-    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A233" s="2"/>
-      <c r="B233" s="2"/>
-      <c r="C233" s="2"/>
-    </row>
-    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A234" s="2"/>
-      <c r="B234" s="2"/>
-      <c r="C234" s="2"/>
-    </row>
-    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A235" s="2"/>
-      <c r="B235" s="2"/>
-      <c r="C235" s="2"/>
-    </row>
-    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A236" s="2"/>
-      <c r="B236" s="2"/>
-      <c r="C236" s="2"/>
-    </row>
-    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A237" s="2"/>
-      <c r="B237" s="2"/>
-      <c r="C237" s="2"/>
-    </row>
-    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A238" s="2"/>
-      <c r="B238" s="2"/>
-      <c r="C238" s="2"/>
-    </row>
-    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A239" s="2"/>
-      <c r="B239" s="2"/>
-      <c r="C239" s="2"/>
-    </row>
-    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A240" s="2"/>
-      <c r="B240" s="2"/>
-      <c r="C240" s="2"/>
-    </row>
-    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A241" s="2"/>
-      <c r="B241" s="2"/>
-      <c r="C241" s="2"/>
-    </row>
-    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A242" s="2"/>
-      <c r="B242" s="2"/>
-      <c r="C242" s="2"/>
-    </row>
-    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A243" s="2"/>
-      <c r="B243" s="2"/>
-      <c r="C243" s="2"/>
-    </row>
-    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A244" s="2"/>
-      <c r="B244" s="2"/>
-      <c r="C244" s="2"/>
-    </row>
-    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A245" s="2"/>
-      <c r="B245" s="2"/>
-      <c r="C245" s="2"/>
-    </row>
-    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A246" s="2"/>
-      <c r="B246" s="2"/>
-      <c r="C246" s="2"/>
-    </row>
-    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A247" s="2"/>
-      <c r="B247" s="2"/>
-      <c r="C247" s="2"/>
-    </row>
-    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A248" s="2"/>
-      <c r="B248" s="2"/>
-      <c r="C248" s="2"/>
-    </row>
-    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A249" s="2"/>
-      <c r="B249" s="2"/>
-      <c r="C249" s="2"/>
-    </row>
-    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A250" s="2"/>
-      <c r="B250" s="2"/>
-      <c r="C250" s="2"/>
-    </row>
-    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A251" s="2"/>
-      <c r="B251" s="2"/>
-      <c r="C251" s="2"/>
-    </row>
-    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A252" s="2"/>
-      <c r="B252" s="2"/>
-      <c r="C252" s="2"/>
-    </row>
-    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A253" s="2"/>
-      <c r="B253" s="2"/>
-      <c r="C253" s="2"/>
-    </row>
-    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A254" s="2"/>
-      <c r="B254" s="2"/>
-      <c r="C254" s="2"/>
-    </row>
-    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A255" s="2"/>
-      <c r="B255" s="2"/>
-      <c r="C255" s="2"/>
-    </row>
-    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A256" s="2"/>
-      <c r="B256" s="2"/>
-      <c r="C256" s="2"/>
-    </row>
-    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A257" s="2"/>
-      <c r="B257" s="2"/>
-      <c r="C257" s="2"/>
-    </row>
-    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A258" s="2"/>
-      <c r="B258" s="2"/>
-      <c r="C258" s="2"/>
-    </row>
-    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A259" s="2"/>
-      <c r="B259" s="2"/>
-      <c r="C259" s="2"/>
-    </row>
-    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A260" s="2"/>
-      <c r="B260" s="2"/>
-      <c r="C260" s="2"/>
-    </row>
-    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A261" s="2"/>
-      <c r="B261" s="2"/>
-      <c r="C261" s="2"/>
-    </row>
-    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A262" s="2"/>
-      <c r="B262" s="2"/>
-      <c r="C262" s="2"/>
-    </row>
-    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A263" s="2"/>
-      <c r="B263" s="2"/>
-      <c r="C263" s="2"/>
-    </row>
-    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A264" s="2"/>
-      <c r="B264" s="2"/>
-      <c r="C264" s="2"/>
-    </row>
-    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A265" s="2"/>
-      <c r="B265" s="2"/>
-      <c r="C265" s="2"/>
-    </row>
-    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A266" s="2"/>
-      <c r="B266" s="2"/>
-      <c r="C266" s="2"/>
-    </row>
-    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A267" s="2"/>
-      <c r="B267" s="2"/>
-      <c r="C267" s="2"/>
-    </row>
-    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A268" s="2"/>
-      <c r="B268" s="2"/>
-      <c r="C268" s="2"/>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/attendance/src/main/resources/LeaveDeductions.xlsx
+++ b/attendance/src/main/resources/LeaveDeductions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="407">
   <si>
     <t xml:space="preserve">TCID</t>
   </si>
@@ -31,6 +31,9 @@
     <t xml:space="preserve">Scope</t>
   </si>
   <si>
+    <t xml:space="preserve">Priority</t>
+  </si>
+  <si>
     <t xml:space="preserve">TestCaseDescription</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t xml:space="preserve">LateDuration</t>
   </si>
   <si>
+    <t xml:space="preserve">Regression</t>
+  </si>
+  <si>
     <t xml:space="preserve">Check Leave deductions when Full day leave is applied and approved for Late duration Half day deduction</t>
   </si>
   <si>
@@ -118,6 +124,9 @@
     <t xml:space="preserve">7</t>
   </si>
   <si>
+    <t xml:space="preserve">Sanity</t>
+  </si>
+  <si>
     <t xml:space="preserve">Check Leave deductions when there is no leave applied for Late duration Half day deduction</t>
   </si>
   <si>
@@ -589,6 +598,9 @@
     <t xml:space="preserve">57</t>
   </si>
   <si>
+    <t xml:space="preserve">LeaveDeductions</t>
+  </si>
+  <si>
     <t xml:space="preserve">LateMark</t>
   </si>
   <si>
@@ -994,187 +1006,241 @@
     <t xml:space="preserve">99</t>
   </si>
   <si>
-    <t xml:space="preserve">Requests</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ClockIn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Clockin Requests all scenarios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.requests.clockin.TestClockInRequests</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requests.xlsx</t>
+    <t xml:space="preserve">EarlyDuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full day leave is applied and approved for Early duration Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.maxout.halfday.TestFullDayAppliedAndApprovedForEarlyDurationHalfDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MaxOut</t>
   </si>
   <si>
     <t xml:space="preserve">100</t>
   </si>
   <si>
-    <t xml:space="preserve">OutDuty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check OutDuty Requests all scenarios</t>
+    <t xml:space="preserve">Check Leave deductions when Full day leave is applied and pending for Early duration Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.maxout.halfday.TestFullDayAppliedAndPendingForEarlyDurationHalfDay</t>
   </si>
   <si>
     <t xml:space="preserve">101</t>
   </si>
   <si>
-    <t xml:space="preserve">ShiftChange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check ShiftChange Requests all scenarios</t>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and approved for Early duration Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.maxout.halfday.TestFirstHalfAppliedAndApprovedForEarlyDurationHalfDay</t>
   </si>
   <si>
     <t xml:space="preserve">102</t>
   </si>
   <si>
-    <t xml:space="preserve">ShortLeave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check ShortLeave Requests all scenarios</t>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for Early duration Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.maxout.halfday.TestFirstHalfAppliedAndPendingForEarlyDurationHalfDay</t>
   </si>
   <si>
     <t xml:space="preserve">103</t>
   </si>
   <si>
-    <t xml:space="preserve">UpdateAttendance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check UpdateAttendance Requests all scenarios</t>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and approved for Early duration Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.maxout.halfday.TestSecondHalfAppliedAndApprovedForEarlyDurationHalfDay</t>
   </si>
   <si>
     <t xml:space="preserve">104</t>
   </si>
   <si>
-    <t xml:space="preserve">EarlyDuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Full day leave is applied and approved for Early duration Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.maxout.halfday.TestFullDayAppliedAndApprovedForEarlyDurationHalfDay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MaxOut</t>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and pending for Early duration Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.maxout.halfday.TestSecondHalfAppliedAndPendingForEarlyDurationHalfDay</t>
   </si>
   <si>
     <t xml:space="preserve">105</t>
   </si>
   <si>
-    <t xml:space="preserve">Check Leave deductions when Full day leave is applied and pending for Early duration Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.maxout.halfday.TestFullDayAppliedAndPendingForEarlyDurationHalfDay</t>
+    <t xml:space="preserve">Check Leave deductions when there is no leave applied for Early duration Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.maxout.halfday.TestForEarlyDurationHalfDay</t>
   </si>
   <si>
     <t xml:space="preserve">106</t>
   </si>
   <si>
-    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and approved for Early duration Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.maxout.halfday.TestFirstHalfAppliedAndApprovedForEarlyDurationHalfDay</t>
+    <t xml:space="preserve">Check Leave deductions when Full day leave is applied and approved for Early duration full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.maxout.fullday.TestFullDayAppliedAndApprovedForEarlyDurationFullDay</t>
   </si>
   <si>
     <t xml:space="preserve">107</t>
   </si>
   <si>
-    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for Early duration Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.maxout.halfday.TestFirstHalfAppliedAndPendingForEarlyDurationHalfDay</t>
+    <t xml:space="preserve">Check Leave deductions when Full day leave is applied and pending for Early duration full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.maxout.fullday.TestFullDayAppliedAndPendingForEarlyDurationFullDay</t>
   </si>
   <si>
     <t xml:space="preserve">108</t>
   </si>
   <si>
-    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and approved for Early duration Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.maxout.halfday.TestSecondHalfAppliedAndApprovedForEarlyDurationHalfDay</t>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and approved for Early duration full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.maxout.fullday.TestFirstHalfAppliedAndApprovedForEarlyDurationFullDay</t>
   </si>
   <si>
     <t xml:space="preserve">109</t>
   </si>
   <si>
-    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and pending for Early duration Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.maxout.halfday.TestSecondHalfAppliedAndPendingForEarlyDurationHalfDay</t>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for Early duration full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.maxout.fullday.TestFirstHalfAppliedAndPendingForEarlyDurationFullDay</t>
   </si>
   <si>
     <t xml:space="preserve">110</t>
   </si>
   <si>
-    <t xml:space="preserve">Check Leave deductions when there is no leave applied for Early duration Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.maxout.halfday.TestForEarlyDurationHalfDay</t>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and approved for Early duration full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.maxout.fullday.TestSecondHalfAppliedAndApprovedForEarlyDurationFullDay</t>
   </si>
   <si>
     <t xml:space="preserve">111</t>
   </si>
   <si>
-    <t xml:space="preserve">Check Leave deductions when Full day leave is applied and approved for Early duration full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.maxout.fullday.TestFullDayAppliedAndApprovedForEarlyDurationFullDay</t>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and pending for Early duration full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.maxout.fullday.TestSecondHalfAppliedAndPendingForEarlyDurationFullDay</t>
   </si>
   <si>
     <t xml:space="preserve">112</t>
   </si>
   <si>
-    <t xml:space="preserve">Check Leave deductions when Full day leave is applied and pending for Early duration full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.maxout.fullday.TestFullDayAppliedAndPendingForEarlyDurationFullDay</t>
+    <t xml:space="preserve">Check Leave deductions when there is no leave applied for Early duration full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.maxout.fullday.TestForEarlyDurationFullDay</t>
   </si>
   <si>
     <t xml:space="preserve">113</t>
   </si>
   <si>
-    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and approved for Early duration full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.maxout.fullday.TestFirstHalfAppliedAndApprovedForEarlyDurationFullDay</t>
+    <t xml:space="preserve">InDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check In day when user is satisfying latemark and workduration deduction</t>
   </si>
   <si>
     <t xml:space="preserve">114</t>
   </si>
   <si>
-    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for Early duration full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.maxout.fullday.TestFirstHalfAppliedAndPendingForEarlyDurationFullDay</t>
+    <t xml:space="preserve">Check In day when user is satisfying latemark and earlyby deduction</t>
   </si>
   <si>
     <t xml:space="preserve">115</t>
   </si>
   <si>
-    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and approved for Early duration full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.maxout.fullday.TestSecondHalfAppliedAndApprovedForEarlyDurationFullDay</t>
+    <t xml:space="preserve">Check In day when user is satisfying latemark and earlymark deduction</t>
   </si>
   <si>
     <t xml:space="preserve">116</t>
   </si>
   <si>
-    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and pending for Early duration full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.maxout.fullday.TestSecondHalfAppliedAndPendingForEarlyDurationFullDay</t>
+    <t xml:space="preserve">Check In day when user is satisfying lateby and workduration deduction</t>
   </si>
   <si>
     <t xml:space="preserve">117</t>
   </si>
   <si>
-    <t xml:space="preserve">Check Leave deductions when there is no leave applied for Early duration full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.maxout.fullday.TestForEarlyDurationFullDay</t>
+    <t xml:space="preserve">Check In day when user is satisfying lateby and earlyby deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check In day when user is satisfying lateby and earlymark deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check In day when user is satisfying lateby and earlymark in lateplusearly deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check In day when user is satisfying earlyby and workduration deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check In day when user is satisfying earlyby and lateby deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check In day when user is satisfying earlyby and latemark deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check In day when user is satisfying earlyby and latemark in earlyplusearly deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check In day when user is satisfying earlymark and workduration deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check In day when user is satisfying earlymark and lateby deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check In day when user is satisfying earlymark and latemark deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check In day when user is satisfying latemark in lateplusearly and workduration deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check In day when user is satisfying latemark in lateplusearly and earlyby deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check In day when user is satisfying earlymark in lateplusearly and workduration deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130</t>
   </si>
 </sst>
 </file>
@@ -1256,17 +1322,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1286,22 +1348,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1048576"/>
+  <dimension ref="A1:I131"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A111" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B115" activeCellId="0" sqref="B115:B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="15.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="97.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="103.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.83"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="97.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="103.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.83"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1329,2969 +1392,3314 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>15</v>
+      <c r="I3" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>59</v>
       </c>
+      <c r="I16" s="0" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>59</v>
       </c>
+      <c r="I17" s="0" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>59</v>
       </c>
+      <c r="I18" s="0" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>59</v>
       </c>
+      <c r="I19" s="0" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>59</v>
       </c>
+      <c r="I20" s="0" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>59</v>
       </c>
+      <c r="I21" s="0" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>59</v>
       </c>
+      <c r="I22" s="0" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>81</v>
+        <v>59</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="E24" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="I24" s="0" t="s">
         <v>84</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>81</v>
+        <v>59</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>81</v>
+        <v>59</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>81</v>
+        <v>59</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>81</v>
+        <v>59</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>81</v>
+        <v>59</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>15</v>
+        <v>107</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="E31" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="F31" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="H31" s="0" t="s">
-        <v>15</v>
+      <c r="I31" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>15</v>
+        <v>107</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>15</v>
+        <v>107</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>15</v>
+        <v>107</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>15</v>
+        <v>107</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>121</v>
+        <v>34</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>15</v>
+        <v>107</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>13</v>
+        <v>128</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>15</v>
+        <v>107</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>15</v>
+        <v>107</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>15</v>
+        <v>107</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>15</v>
+        <v>107</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>15</v>
+        <v>107</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>15</v>
+        <v>107</v>
+      </c>
+      <c r="I42" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>142</v>
+        <v>34</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>15</v>
+        <v>107</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>148</v>
+        <v>15</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>15</v>
+        <v>151</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="E45" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="F45" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="H45" s="0" t="s">
-        <v>15</v>
+      <c r="I45" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>13</v>
+        <v>157</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>148</v>
+        <v>15</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>15</v>
+        <v>151</v>
+      </c>
+      <c r="I46" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>148</v>
+        <v>15</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>15</v>
+        <v>151</v>
+      </c>
+      <c r="I47" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>148</v>
+        <v>15</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>15</v>
+        <v>151</v>
+      </c>
+      <c r="I48" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>13</v>
+        <v>166</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>148</v>
+        <v>15</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>15</v>
+        <v>151</v>
+      </c>
+      <c r="I49" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>165</v>
+        <v>34</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>148</v>
+        <v>15</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>15</v>
+        <v>151</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>148</v>
+        <v>15</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>15</v>
+        <v>151</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>13</v>
+        <v>175</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>148</v>
+        <v>15</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>15</v>
+        <v>151</v>
+      </c>
+      <c r="I52" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>148</v>
+        <v>15</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>15</v>
+        <v>151</v>
+      </c>
+      <c r="I53" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>177</v>
+        <v>12</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>13</v>
+        <v>181</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>148</v>
+        <v>15</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>15</v>
+        <v>151</v>
+      </c>
+      <c r="I54" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>13</v>
+        <v>184</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>148</v>
+        <v>15</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>15</v>
+        <v>151</v>
+      </c>
+      <c r="I55" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>183</v>
+        <v>12</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>148</v>
+        <v>15</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>15</v>
+        <v>151</v>
+      </c>
+      <c r="I56" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>186</v>
+        <v>34</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>13</v>
+        <v>190</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>148</v>
+        <v>15</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>15</v>
+        <v>151</v>
+      </c>
+      <c r="I57" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>9</v>
+        <v>192</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>13</v>
+        <v>195</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>192</v>
+        <v>15</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>15</v>
+        <v>196</v>
+      </c>
+      <c r="I58" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C59" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="B59" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>189</v>
-      </c>
       <c r="D59" s="0" t="s">
-        <v>194</v>
+        <v>12</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>13</v>
+        <v>199</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>192</v>
+        <v>15</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>15</v>
+        <v>196</v>
+      </c>
+      <c r="I59" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="G60" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H60" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="B60" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C60" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="D60" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="E60" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="F60" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="H60" s="0" t="s">
-        <v>15</v>
+      <c r="I60" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>9</v>
+        <v>192</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>13</v>
+        <v>205</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>192</v>
+        <v>15</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>15</v>
+        <v>196</v>
+      </c>
+      <c r="I61" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>9</v>
+        <v>192</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>203</v>
+        <v>12</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>13</v>
+        <v>208</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>192</v>
+        <v>15</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>15</v>
+        <v>196</v>
+      </c>
+      <c r="I62" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>9</v>
+        <v>192</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>206</v>
+        <v>12</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>13</v>
+        <v>211</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>192</v>
+        <v>15</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>15</v>
+        <v>196</v>
+      </c>
+      <c r="I63" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>9</v>
+        <v>192</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>209</v>
+        <v>34</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>13</v>
+        <v>214</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>192</v>
+        <v>15</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>15</v>
+        <v>196</v>
+      </c>
+      <c r="I64" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>9</v>
+        <v>192</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>13</v>
+        <v>217</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>214</v>
+        <v>15</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>15</v>
+        <v>218</v>
+      </c>
+      <c r="I65" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>9</v>
+        <v>192</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>216</v>
+        <v>12</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>13</v>
+        <v>221</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>214</v>
+        <v>15</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>15</v>
+        <v>218</v>
+      </c>
+      <c r="I66" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="G67" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H67" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="B67" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C67" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="D67" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="E67" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="F67" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="H67" s="0" t="s">
-        <v>15</v>
+      <c r="I67" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>9</v>
+        <v>192</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>222</v>
+        <v>12</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>13</v>
+        <v>227</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>214</v>
+        <v>15</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>15</v>
+        <v>218</v>
+      </c>
+      <c r="I68" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>9</v>
+        <v>192</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>225</v>
+        <v>12</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>13</v>
+        <v>230</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>214</v>
+        <v>15</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>15</v>
+        <v>218</v>
+      </c>
+      <c r="I69" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>9</v>
+        <v>192</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>228</v>
+        <v>12</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>13</v>
+        <v>233</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>214</v>
+        <v>15</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>15</v>
+        <v>218</v>
+      </c>
+      <c r="I70" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>9</v>
+        <v>192</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>231</v>
+        <v>34</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>13</v>
+        <v>236</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>214</v>
+        <v>15</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>15</v>
+        <v>218</v>
+      </c>
+      <c r="I71" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>9</v>
+        <v>192</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>235</v>
+        <v>12</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>237</v>
+        <v>15</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>15</v>
+        <v>241</v>
+      </c>
+      <c r="I72" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C73" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="B73" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C73" s="0" t="s">
-        <v>234</v>
-      </c>
       <c r="D73" s="0" t="s">
-        <v>239</v>
+        <v>12</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>13</v>
+        <v>244</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>237</v>
+        <v>15</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>15</v>
+        <v>241</v>
+      </c>
+      <c r="I73" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="F74" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="G74" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H74" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="B74" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C74" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="D74" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="E74" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="F74" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G74" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="H74" s="0" t="s">
-        <v>15</v>
+      <c r="I74" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>9</v>
+        <v>192</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>245</v>
+        <v>12</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>13</v>
+        <v>250</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>237</v>
+        <v>15</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>15</v>
+        <v>241</v>
+      </c>
+      <c r="I75" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>9</v>
+        <v>192</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>248</v>
+        <v>12</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>13</v>
+        <v>253</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>237</v>
+        <v>15</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>15</v>
+        <v>241</v>
+      </c>
+      <c r="I76" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>9</v>
+        <v>192</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>251</v>
+        <v>12</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>13</v>
+        <v>256</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>237</v>
+        <v>15</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>15</v>
+        <v>241</v>
+      </c>
+      <c r="I77" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>9</v>
+        <v>192</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>254</v>
+        <v>34</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>13</v>
+        <v>259</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>237</v>
+        <v>15</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>15</v>
+        <v>241</v>
+      </c>
+      <c r="I78" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>9</v>
+        <v>192</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>257</v>
+        <v>12</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>13</v>
+        <v>262</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>259</v>
+        <v>15</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>15</v>
+        <v>263</v>
+      </c>
+      <c r="I79" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>9</v>
+        <v>192</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>261</v>
+        <v>12</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>13</v>
+        <v>266</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>259</v>
+        <v>15</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>15</v>
+        <v>263</v>
+      </c>
+      <c r="I80" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="F81" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="G81" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H81" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="B81" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C81" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="D81" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="E81" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="F81" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G81" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="H81" s="0" t="s">
-        <v>15</v>
+      <c r="I81" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>9</v>
+        <v>192</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>267</v>
+        <v>12</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>13</v>
+        <v>272</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>259</v>
+        <v>15</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>15</v>
+        <v>263</v>
+      </c>
+      <c r="I82" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>9</v>
+        <v>192</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>270</v>
+        <v>12</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>13</v>
+        <v>275</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>259</v>
+        <v>15</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>15</v>
+        <v>263</v>
+      </c>
+      <c r="I83" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>9</v>
+        <v>192</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>273</v>
+        <v>12</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>13</v>
+        <v>278</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>259</v>
+        <v>15</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>15</v>
+        <v>263</v>
+      </c>
+      <c r="I84" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>9</v>
+        <v>192</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>276</v>
+        <v>34</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>13</v>
+        <v>281</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>259</v>
+        <v>15</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>15</v>
+        <v>263</v>
+      </c>
+      <c r="I85" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>9</v>
+        <v>192</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>280</v>
+        <v>12</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>13</v>
+        <v>285</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>282</v>
+        <v>15</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>15</v>
+        <v>286</v>
+      </c>
+      <c r="I86" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C87" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="B87" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C87" s="0" t="s">
-        <v>279</v>
-      </c>
       <c r="D87" s="0" t="s">
-        <v>284</v>
+        <v>12</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>13</v>
+        <v>289</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>282</v>
+        <v>15</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>15</v>
+        <v>286</v>
+      </c>
+      <c r="I87" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F88" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="G88" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H88" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="B88" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C88" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="D88" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="E88" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="F88" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G88" s="0" t="s">
-        <v>282</v>
-      </c>
-      <c r="H88" s="0" t="s">
-        <v>15</v>
+      <c r="I88" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>9</v>
+        <v>192</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>290</v>
+        <v>12</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>13</v>
+        <v>295</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>282</v>
+        <v>15</v>
       </c>
       <c r="H89" s="0" t="s">
-        <v>15</v>
+        <v>286</v>
+      </c>
+      <c r="I89" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>9</v>
+        <v>192</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>293</v>
+        <v>12</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>13</v>
+        <v>298</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>282</v>
+        <v>15</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>15</v>
+        <v>286</v>
+      </c>
+      <c r="I90" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>9</v>
+        <v>192</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>296</v>
+        <v>12</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>13</v>
+        <v>301</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>282</v>
+        <v>15</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>15</v>
+        <v>286</v>
+      </c>
+      <c r="I91" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>9</v>
+        <v>192</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>299</v>
+        <v>34</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>13</v>
+        <v>304</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>282</v>
+        <v>15</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>15</v>
+        <v>286</v>
+      </c>
+      <c r="I92" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>9</v>
+        <v>192</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>302</v>
+        <v>12</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>13</v>
+        <v>307</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>304</v>
+        <v>15</v>
       </c>
       <c r="H93" s="0" t="s">
-        <v>15</v>
+        <v>308</v>
+      </c>
+      <c r="I93" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>9</v>
+        <v>192</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>306</v>
+        <v>12</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>13</v>
+        <v>311</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>304</v>
+        <v>15</v>
       </c>
       <c r="H94" s="0" t="s">
-        <v>15</v>
+        <v>308</v>
+      </c>
+      <c r="I94" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="F95" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="G95" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H95" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="B95" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C95" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="D95" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="E95" s="0" t="s">
-        <v>310</v>
-      </c>
-      <c r="F95" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G95" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="H95" s="0" t="s">
-        <v>15</v>
+      <c r="I95" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>9</v>
+        <v>192</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>312</v>
+        <v>12</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>13</v>
+        <v>317</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>304</v>
+        <v>15</v>
       </c>
       <c r="H96" s="0" t="s">
-        <v>15</v>
+        <v>308</v>
+      </c>
+      <c r="I96" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>9</v>
+        <v>192</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>315</v>
+        <v>12</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>13</v>
+        <v>320</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>304</v>
+        <v>15</v>
       </c>
       <c r="H97" s="0" t="s">
-        <v>15</v>
+        <v>308</v>
+      </c>
+      <c r="I97" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>9</v>
+        <v>192</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>318</v>
+        <v>12</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>13</v>
+        <v>323</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>304</v>
+        <v>15</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>15</v>
+        <v>308</v>
+      </c>
+      <c r="I98" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>9</v>
+        <v>192</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>321</v>
+        <v>34</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>13</v>
+        <v>326</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>304</v>
+        <v>15</v>
       </c>
       <c r="H99" s="0" t="s">
-        <v>15</v>
+        <v>308</v>
+      </c>
+      <c r="I99" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>325</v>
+        <v>10</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>328</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>326</v>
+        <v>12</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
+      </c>
+      <c r="F100" s="0" t="s">
+        <v>330</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>325</v>
+        <v>15</v>
       </c>
       <c r="H100" s="0" t="s">
-        <v>15</v>
+        <v>331</v>
+      </c>
+      <c r="I100" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>330</v>
+        <v>10</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>328</v>
       </c>
       <c r="D101" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E101" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="F101" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="G101" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H101" s="0" t="s">
         <v>331</v>
       </c>
-      <c r="E101" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="G101" s="0" t="s">
-        <v>325</v>
-      </c>
-      <c r="H101" s="0" t="s">
-        <v>15</v>
+      <c r="I101" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>333</v>
+        <v>10</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>328</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>334</v>
+        <v>12</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>328</v>
+        <v>336</v>
+      </c>
+      <c r="F102" s="0" t="s">
+        <v>337</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>325</v>
+        <v>15</v>
       </c>
       <c r="H102" s="0" t="s">
-        <v>15</v>
+        <v>331</v>
+      </c>
+      <c r="I102" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>336</v>
+        <v>10</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>328</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>337</v>
+        <v>12</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>328</v>
+        <v>339</v>
+      </c>
+      <c r="F103" s="0" t="s">
+        <v>340</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>325</v>
+        <v>15</v>
       </c>
       <c r="H103" s="0" t="s">
-        <v>15</v>
+        <v>331</v>
+      </c>
+      <c r="I103" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>339</v>
+        <v>10</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>328</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>340</v>
+        <v>12</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>328</v>
+        <v>342</v>
+      </c>
+      <c r="F104" s="0" t="s">
+        <v>343</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>325</v>
+        <v>15</v>
       </c>
       <c r="H104" s="0" t="s">
-        <v>15</v>
+        <v>331</v>
+      </c>
+      <c r="I104" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>343</v>
+        <v>12</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>13</v>
+        <v>346</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>345</v>
+        <v>15</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>15</v>
+        <v>331</v>
+      </c>
+      <c r="I105" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>347</v>
+        <v>34</v>
       </c>
       <c r="E106" s="0" t="s">
         <v>348</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>13</v>
+        <v>349</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>345</v>
+        <v>15</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>15</v>
+        <v>331</v>
+      </c>
+      <c r="I106" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>350</v>
+        <v>12</v>
       </c>
       <c r="E107" s="0" t="s">
         <v>351</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>13</v>
+        <v>352</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>345</v>
+        <v>15</v>
       </c>
       <c r="H107" s="0" t="s">
-        <v>15</v>
+        <v>331</v>
+      </c>
+      <c r="I107" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>353</v>
+        <v>12</v>
       </c>
       <c r="E108" s="0" t="s">
         <v>354</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>13</v>
+        <v>355</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>345</v>
+        <v>15</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>15</v>
+        <v>331</v>
+      </c>
+      <c r="I108" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>356</v>
+        <v>12</v>
       </c>
       <c r="E109" s="0" t="s">
         <v>357</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>13</v>
+        <v>358</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>345</v>
+        <v>15</v>
       </c>
       <c r="H109" s="0" t="s">
-        <v>15</v>
+        <v>331</v>
+      </c>
+      <c r="I109" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>359</v>
+        <v>12</v>
       </c>
       <c r="E110" s="0" t="s">
         <v>360</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>13</v>
+        <v>361</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>345</v>
+        <v>15</v>
       </c>
       <c r="H110" s="0" t="s">
-        <v>15</v>
+        <v>331</v>
+      </c>
+      <c r="I110" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>362</v>
+        <v>12</v>
       </c>
       <c r="E111" s="0" t="s">
         <v>363</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>13</v>
+        <v>364</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>345</v>
+        <v>15</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>15</v>
+        <v>331</v>
+      </c>
+      <c r="I111" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>365</v>
+        <v>12</v>
       </c>
       <c r="E112" s="0" t="s">
         <v>366</v>
       </c>
       <c r="F112" s="0" t="s">
-        <v>13</v>
+        <v>367</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>345</v>
+        <v>15</v>
       </c>
       <c r="H112" s="0" t="s">
-        <v>15</v>
+        <v>331</v>
+      </c>
+      <c r="I112" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>368</v>
+        <v>34</v>
       </c>
       <c r="E113" s="0" t="s">
         <v>369</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>13</v>
+        <v>370</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>345</v>
+        <v>15</v>
       </c>
       <c r="H113" s="0" t="s">
-        <v>15</v>
+        <v>331</v>
+      </c>
+      <c r="I113" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="D114" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E114" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="F114" s="0" t="s">
         <v>370</v>
       </c>
-      <c r="B114" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C114" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="D114" s="0" t="s">
-        <v>371</v>
-      </c>
-      <c r="E114" s="0" t="s">
+      <c r="G114" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H114" s="0" t="s">
         <v>372</v>
       </c>
-      <c r="F114" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G114" s="0" t="s">
-        <v>345</v>
-      </c>
-      <c r="H114" s="0" t="s">
-        <v>15</v>
+      <c r="I114" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>9</v>
+        <v>192</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>342</v>
+        <v>372</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>374</v>
+        <v>34</v>
       </c>
       <c r="E115" s="0" t="s">
         <v>375</v>
       </c>
       <c r="F115" s="0" t="s">
-        <v>13</v>
+        <v>370</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>345</v>
+        <v>15</v>
       </c>
       <c r="H115" s="0" t="s">
-        <v>15</v>
+        <v>372</v>
+      </c>
+      <c r="I115" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4299,80 +4707,465 @@
         <v>376</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>9</v>
+        <v>192</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>342</v>
+        <v>372</v>
       </c>
       <c r="D116" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E116" s="0" t="s">
         <v>377</v>
       </c>
-      <c r="E116" s="0" t="s">
-        <v>378</v>
-      </c>
       <c r="F116" s="0" t="s">
-        <v>13</v>
+        <v>370</v>
       </c>
       <c r="G116" s="0" t="s">
-        <v>345</v>
+        <v>15</v>
       </c>
       <c r="H116" s="0" t="s">
-        <v>15</v>
+        <v>372</v>
+      </c>
+      <c r="I116" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="D117" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E117" s="0" t="s">
         <v>379</v>
       </c>
-      <c r="B117" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C117" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="D117" s="0" t="s">
-        <v>380</v>
-      </c>
-      <c r="E117" s="0" t="s">
-        <v>381</v>
-      </c>
       <c r="F117" s="0" t="s">
-        <v>13</v>
+        <v>370</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>345</v>
+        <v>15</v>
       </c>
       <c r="H117" s="0" t="s">
-        <v>15</v>
+        <v>372</v>
+      </c>
+      <c r="I117" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="D118" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E118" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="F118" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="G118" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H118" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="I118" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
         <v>382</v>
       </c>
-      <c r="B118" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C118" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="D118" s="0" t="s">
+      <c r="B119" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="D119" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E119" s="0" t="s">
         <v>383</v>
       </c>
-      <c r="E118" s="0" t="s">
+      <c r="F119" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="G119" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H119" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="I119" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
         <v>384</v>
       </c>
-      <c r="F118" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G118" s="0" t="s">
-        <v>345</v>
-      </c>
-      <c r="H118" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B120" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="D120" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E120" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="F120" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="G120" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H120" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="I120" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="D121" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E121" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="F121" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="G121" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H121" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="I121" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="D122" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E122" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="F122" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="G122" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H122" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="I122" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="D123" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E123" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="F123" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="G123" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H123" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="I123" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="D124" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E124" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="F124" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="G124" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H124" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="I124" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C125" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="D125" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E125" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="F125" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="G125" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H125" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="I125" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C126" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="D126" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E126" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="F126" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="G126" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H126" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="I126" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C127" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="D127" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E127" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="F127" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="G127" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H127" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="I127" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="D128" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E128" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="F128" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="G128" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H128" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="I128" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="D129" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E129" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="F129" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="G129" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H129" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="I129" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="D130" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E130" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="F130" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="G130" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H130" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="I130" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="D131" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E131" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="F131" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="G131" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H131" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="I131" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/attendance/src/main/resources/LeaveDeductions.xlsx
+++ b/attendance/src/main/resources/LeaveDeductions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="231">
   <si>
     <t xml:space="preserve">TCID</t>
   </si>
@@ -596,9 +596,6 @@
   </si>
   <si>
     <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlyduration.fullday.TestFirstHalfAppliedAndApprovedForEarlyByFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EarlyLuration</t>
   </si>
   <si>
     <t xml:space="preserve">58</t>
@@ -825,8 +822,8 @@
   </sheetPr>
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F56" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G66" activeCellId="0" sqref="G66"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H59" activeCellId="0" sqref="H59:H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2518,7 +2515,7 @@
         <v>15</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I58" s="0" t="s">
         <v>17</v>
@@ -2526,7 +2523,7 @@
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>10</v>
@@ -2538,16 +2535,16 @@
         <v>12</v>
       </c>
       <c r="E59" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="F59" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="F59" s="0" t="s">
-        <v>195</v>
-      </c>
       <c r="G59" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I59" s="0" t="s">
         <v>17</v>
@@ -2555,7 +2552,7 @@
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>10</v>
@@ -2567,16 +2564,16 @@
         <v>12</v>
       </c>
       <c r="E60" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="F60" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="F60" s="0" t="s">
-        <v>198</v>
-      </c>
       <c r="G60" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I60" s="0" t="s">
         <v>17</v>
@@ -2584,7 +2581,7 @@
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>10</v>
@@ -2596,16 +2593,16 @@
         <v>12</v>
       </c>
       <c r="E61" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="F61" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="F61" s="0" t="s">
-        <v>201</v>
-      </c>
       <c r="G61" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I61" s="0" t="s">
         <v>17</v>
@@ -2613,7 +2610,7 @@
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>10</v>
@@ -2625,16 +2622,16 @@
         <v>12</v>
       </c>
       <c r="E62" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="F62" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="F62" s="0" t="s">
-        <v>204</v>
-      </c>
       <c r="G62" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I62" s="0" t="s">
         <v>17</v>
@@ -2642,7 +2639,7 @@
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B63" s="0" t="s">
         <v>10</v>
@@ -2654,16 +2651,16 @@
         <v>12</v>
       </c>
       <c r="E63" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="F63" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="F63" s="0" t="s">
-        <v>207</v>
-      </c>
       <c r="G63" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I63" s="0" t="s">
         <v>17</v>
@@ -2671,7 +2668,7 @@
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B64" s="0" t="s">
         <v>10</v>
@@ -2683,16 +2680,16 @@
         <v>34</v>
       </c>
       <c r="E64" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="F64" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="F64" s="0" t="s">
-        <v>210</v>
-      </c>
       <c r="G64" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I64" s="0" t="s">
         <v>17</v>
@@ -2700,7 +2697,7 @@
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B65" s="0" t="s">
         <v>10</v>
@@ -2712,16 +2709,16 @@
         <v>12</v>
       </c>
       <c r="E65" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="F65" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="F65" s="0" t="s">
-        <v>213</v>
-      </c>
       <c r="G65" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I65" s="0" t="s">
         <v>17</v>
@@ -2729,7 +2726,7 @@
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>10</v>
@@ -2741,16 +2738,16 @@
         <v>12</v>
       </c>
       <c r="E66" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="F66" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="F66" s="0" t="s">
-        <v>216</v>
-      </c>
       <c r="G66" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I66" s="0" t="s">
         <v>17</v>
@@ -2758,7 +2755,7 @@
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B67" s="0" t="s">
         <v>10</v>
@@ -2770,16 +2767,16 @@
         <v>12</v>
       </c>
       <c r="E67" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="F67" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="F67" s="0" t="s">
-        <v>219</v>
-      </c>
       <c r="G67" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I67" s="0" t="s">
         <v>17</v>
@@ -2787,7 +2784,7 @@
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B68" s="0" t="s">
         <v>10</v>
@@ -2799,16 +2796,16 @@
         <v>12</v>
       </c>
       <c r="E68" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="F68" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="F68" s="0" t="s">
-        <v>222</v>
-      </c>
       <c r="G68" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I68" s="0" t="s">
         <v>17</v>
@@ -2816,7 +2813,7 @@
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B69" s="0" t="s">
         <v>10</v>
@@ -2828,16 +2825,16 @@
         <v>12</v>
       </c>
       <c r="E69" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="F69" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="F69" s="0" t="s">
-        <v>225</v>
-      </c>
       <c r="G69" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I69" s="0" t="s">
         <v>17</v>
@@ -2845,7 +2842,7 @@
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B70" s="0" t="s">
         <v>10</v>
@@ -2857,16 +2854,16 @@
         <v>12</v>
       </c>
       <c r="E70" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="F70" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="F70" s="0" t="s">
-        <v>228</v>
-      </c>
       <c r="G70" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I70" s="0" t="s">
         <v>17</v>
@@ -2874,7 +2871,7 @@
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B71" s="0" t="s">
         <v>10</v>
@@ -2886,16 +2883,16 @@
         <v>34</v>
       </c>
       <c r="E71" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="F71" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="F71" s="0" t="s">
-        <v>231</v>
-      </c>
       <c r="G71" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I71" s="0" t="s">
         <v>17</v>

--- a/attendance/src/main/resources/LeaveDeductions.xlsx
+++ b/attendance/src/main/resources/LeaveDeductions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="234">
   <si>
     <t xml:space="preserve">TCID</t>
   </si>
@@ -49,6 +49,9 @@
     <t xml:space="preserve">TestDataRow</t>
   </si>
   <si>
+    <t xml:space="preserve">RunMode</t>
+  </si>
+  <si>
     <t xml:space="preserve">1</t>
   </si>
   <si>
@@ -76,6 +79,9 @@
     <t xml:space="preserve">1-32</t>
   </si>
   <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
@@ -263,6 +269,9 @@
   </si>
   <si>
     <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.totalduration.fullday.TestForTotalDurationFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
   </si>
   <si>
     <t xml:space="preserve">22</t>
@@ -794,13 +803,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -820,10 +833,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H59" activeCellId="0" sqref="H59:H71"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A69" activeCellId="0" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -867,2035 +880,2248 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="I10" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F16" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>60</v>
-      </c>
       <c r="I16" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="B31" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>103</v>
-      </c>
       <c r="D31" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J40" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="B45" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>146</v>
-      </c>
       <c r="D45" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J45" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J46" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J47" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J48" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J49" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J50" s="0" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J51" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J53" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J54" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J55" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J56" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J57" s="0" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J58" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="B59" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>189</v>
-      </c>
       <c r="D59" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J59" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J60" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J61" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J62" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J63" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J64" s="0" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J65" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J66" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J67" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J68" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J69" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J70" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J71" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/attendance/src/main/resources/LeaveDeductions.xlsx
+++ b/attendance/src/main/resources/LeaveDeductions.xlsx
@@ -835,8 +835,8 @@
   </sheetPr>
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A69" activeCellId="0" sqref="A69"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/attendance/src/main/resources/LeaveDeductions.xlsx
+++ b/attendance/src/main/resources/LeaveDeductions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="279">
   <si>
     <t xml:space="preserve">TCID</t>
   </si>
@@ -271,457 +271,592 @@
     <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.totalduration.fullday.TestForTotalDurationFullDayDeduction</t>
   </si>
   <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and approved for Total Work Duration Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.totalduration.halfday.TestFirstHalfAppliedAndApprovedForTotalDurationHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for Total Work Duration Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.totalduration.halfday.TestFirstHalfAppliedAndPendingForTotalDurationHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and approved for Total Work Duration Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.totalduration.halfday.TestSecondHalfAppliedAndApprovedForTotalDurationHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and pending for Total Work Duration Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.totalduration.halfday.TestSecondHalfAppliedAndPendingForTotalDurationHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and approved for Total Work Duration Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.totalduration.halfday.TestFullDayAppliedAndApprovedForTotalDurationHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and pending for Total Work Duration Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.totalduration.halfday.TestFullDayAppliedAndPendingForTotalDurationHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when no leave is applied for Total Work Duration Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.totalduration.halfday.TestForTotalDurationHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FinalDuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and approved for Final Work Duration Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.finalduration.fullday.TestFirstHalfAppliedAndApprovedForFinalDurationFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for Final Work Duration Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.finalduration.fullday.TestFirstHalfAppliedAndPendingForFinalDurationFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and approved for Final Work Duration Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.finalduration.fullday.TestSecondHalfAppliedAndApprovedForFinalDurationFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and pending for Final Work Duration Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.finalduration.fullday.TestSecondHalfAppliedAndPendingForFinalDurationFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and approved for Final Work Duration Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.finalduration.fullday.TestFullDayAppliedAndApprovedForFinalDurationFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and pending for Final Work Duration Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.finalduration.fullday.TestFullDayAppliedAndPendingForFinalDurationFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when no leave is applied for Final Work Duration Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.finalduration.fullday.TestForFinalDurationFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and approved for Final Work Duration Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.finalduration.halfday.TestFirstHalfAppliedAndApprovedForFinalDurationHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for Final Work Duration Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.finalduration.halfday.TestFirstHalfAppliedAndPendingForFinalDurationHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and approved for Final Work Duration Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.finalduration.halfday.TestSecondHalfAppliedAndApprovedForFinalDurationHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and pending for Final Work Duration Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.finalduration.halfday.TestSecondHalfAppliedAndPendingForFinalDurationHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and approved for Final Work Duration Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.finalduration.halfday.TestFullDayAppliedAndApprovedForFinalDurationHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and pending for Final Work Duration Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.finalduration.halfday.TestFullDayAppliedAndPendingForFinalDurationHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when no leave is applied for Final Work Duration Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.finalduration.halfday.TestForFinalDurationHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LateDuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and approved for Late Duration Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateduration.fullday.TestFirstHalfAppliedAndApprovedForLateByFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for Late Duration Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateduration.fullday.TestFirstHalfAppliedAndPendingForLateByFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and approved for Late Duration Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateduration.fullday.TestSecondHalfAppliedAndApprovedForLateByFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and pending for Late Duration Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateduration.fullday.TestSecondHalfAppliedAndPendingForLateByFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and approved for Late Duration Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateduration.fullday.TestFullDayAppliedAndApprovedForLateByFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and pending for Late Duration Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateduration.fullday.TestFullDayAppliedAndPendingForLateByFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when no leave is applied for Late Duration Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateduration.fullday.TestForLateByFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and approved for Late Duration Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateduration.halfday.TestFirstHalfAppliedAndApprovedForLateByHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for Late Duration Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateduration.halfday.TestFirstHalfAppliedAndPendingForLateByHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and approved for Late Duration Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateduration.halfday.TestSecondHalfAppliedAndApprovedForLateByHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and pending for Late Duration Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateduration.halfday.TestSecondHalfAppliedAndPendingForLateByHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and approved for Late Duration Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateduration.halfday.TestFullDayAppliedAndApprovedForLateByHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and pending for Late Duration Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateduration.halfday.TestFullDayAppliedAndPendingForLateByHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when no leave is applied for Late Duration Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateduration.halfday.TestForLateByHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EarlyDuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and approved for Early Duration Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlyduration.fullday.TestFirstHalfAppliedAndApprovedForEarlyByFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for Early Duration Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlyduration.fullday.TestFirstHalfAppliedAndPendingForEarlyByFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and approved for Early Duration Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlyduration.fullday.TestSecondHalfAppliedAndApprovedForEarlyByFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and pending for Early Duration Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlyduration.fullday.TestSecondHalfAppliedAndPendingForEarlyByFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and approved for Early Duration Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlyduration.fullday.TestFullDayAppliedAndApprovedForEarlyByFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and pending for Early Duration Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlyduration.fullday.TestFullDayAppliedAndPendingForEarlyByFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when no leave is applied for Early Duration Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlyduration.fullday.TestForEarlyByFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and approved for Early Duration Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlyduration.halfday.TestFirstHalfAppliedAndApprovedForEarlyByHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for Early Duration Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlyduration.halfday.TestFirstHalfAppliedAndPendingForEarlyByHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and approved for Early Duration Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlyduration.halfday.TestSecondHalfAppliedAndApprovedForEarlyByHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and pending for Early Duration Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlyduration.halfday.TestSecondHalfAppliedAndPendingForEarlyByHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and approved for Early Duration Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlyduration.halfday.TestFullDayAppliedAndApprovedForEarlyByHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and pending for Early Duration Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlyduration.halfday.TestFullDayAppliedAndPendingForEarlyByHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when no leave is applied for Early Duration Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlyduration.halfday.TestForEarlyByHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LateMark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and approved for Late Mark Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.fullday.TestFirstHalfAppliedAndApprovedForLateMarkFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LateMarkFullDay</t>
+  </si>
+  <si>
     <t xml:space="preserve">yes</t>
   </si>
   <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and approved for Total Work Duration Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.totalduration.halfday.TestFirstHalfAppliedAndApprovedForTotalDurationHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for Total Work Duration Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.totalduration.halfday.TestFirstHalfAppliedAndPendingForTotalDurationHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and approved for Total Work Duration Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.totalduration.halfday.TestSecondHalfAppliedAndApprovedForTotalDurationHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and pending for Total Work Duration Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.totalduration.halfday.TestSecondHalfAppliedAndPendingForTotalDurationHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and approved for Total Work Duration Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.totalduration.halfday.TestFullDayAppliedAndApprovedForTotalDurationHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and pending for Total Work Duration Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.totalduration.halfday.TestFullDayAppliedAndPendingForTotalDurationHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when no leave is applied for Total Work Duration Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.totalduration.halfday.TestForTotalDurationHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FinalDuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and approved for Final Work Duration Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.finalduration.fullday.TestFirstHalfAppliedAndApprovedForFinalDurationFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for Final Work Duration Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.finalduration.fullday.TestFirstHalfAppliedAndPendingForFinalDurationFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and approved for Final Work Duration Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.finalduration.fullday.TestSecondHalfAppliedAndApprovedForFinalDurationFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and pending for Final Work Duration Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.finalduration.fullday.TestSecondHalfAppliedAndPendingForFinalDurationFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and approved for Final Work Duration Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.finalduration.fullday.TestFullDayAppliedAndApprovedForFinalDurationFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and pending for Final Work Duration Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.finalduration.fullday.TestFullDayAppliedAndPendingForFinalDurationFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when no leave is applied for Final Work Duration Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.finalduration.fullday.TestForFinalDurationFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and approved for Final Work Duration Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.finalduration.halfday.TestFirstHalfAppliedAndApprovedForFinalDurationHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for Final Work Duration Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.finalduration.halfday.TestFirstHalfAppliedAndPendingForFinalDurationHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and approved for Final Work Duration Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.finalduration.halfday.TestSecondHalfAppliedAndApprovedForFinalDurationHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and pending for Final Work Duration Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.finalduration.halfday.TestSecondHalfAppliedAndPendingForFinalDurationHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and approved for Final Work Duration Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.finalduration.halfday.TestFullDayAppliedAndApprovedForFinalDurationHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and pending for Final Work Duration Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.finalduration.halfday.TestFullDayAppliedAndPendingForFinalDurationHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when no leave is applied for Final Work Duration Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.finalduration.halfday.TestForFinalDurationHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LateDuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and approved for Late Duration Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateduration.fullday.TestFirstHalfAppliedAndApprovedForLateByFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for Late Duration Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateduration.fullday.TestFirstHalfAppliedAndPendingForLateByFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and approved for Late Duration Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateduration.fullday.TestSecondHalfAppliedAndApprovedForLateByFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and pending for Late Duration Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateduration.fullday.TestSecondHalfAppliedAndPendingForLateByFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and approved for Late Duration Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateduration.fullday.TestFullDayAppliedAndApprovedForLateByFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and pending for Late Duration Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateduration.fullday.TestFullDayAppliedAndPendingForLateByFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when no leave is applied for Late Duration Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateduration.fullday.TestForLateByFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and approved for Late Duration Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateduration.halfday.TestFirstHalfAppliedAndApprovedForLateByHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for Late Duration Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateduration.halfday.TestFirstHalfAppliedAndPendingForLateByHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and approved for Late Duration Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateduration.halfday.TestSecondHalfAppliedAndApprovedForLateByHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and pending for Late Duration Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateduration.halfday.TestSecondHalfAppliedAndPendingForLateByHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and approved for Late Duration Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateduration.halfday.TestFullDayAppliedAndApprovedForLateByHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and pending for Late Duration Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateduration.halfday.TestFullDayAppliedAndPendingForLateByHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when no leave is applied for Late Duration Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateduration.halfday.TestForLateByHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EarlyDuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and approved for Early Duration Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlyduration.fullday.TestFirstHalfAppliedAndApprovedForEarlyByFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for Early Duration Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlyduration.fullday.TestFirstHalfAppliedAndPendingForEarlyByFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and approved for Early Duration Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlyduration.fullday.TestSecondHalfAppliedAndApprovedForEarlyByFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and pending for Early Duration Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlyduration.fullday.TestSecondHalfAppliedAndPendingForEarlyByFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and approved for Early Duration Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlyduration.fullday.TestFullDayAppliedAndApprovedForEarlyByFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and pending for Early Duration Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlyduration.fullday.TestFullDayAppliedAndPendingForEarlyByFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when no leave is applied for Early Duration Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlyduration.fullday.TestForEarlyByFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and approved for Early Duration Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlyduration.halfday.TestFirstHalfAppliedAndApprovedForEarlyByHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for Early Duration Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlyduration.halfday.TestFirstHalfAppliedAndPendingForEarlyByHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and approved for Early Duration Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlyduration.halfday.TestSecondHalfAppliedAndApprovedForEarlyByHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and pending for Early Duration Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlyduration.halfday.TestSecondHalfAppliedAndPendingForEarlyByHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and approved for Early Duration Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlyduration.halfday.TestFullDayAppliedAndApprovedForEarlyByHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and pending for Early Duration Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlyduration.halfday.TestFullDayAppliedAndPendingForEarlyByHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when no leave is applied for Early Duration Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlyduration.halfday.TestForEarlyByHalfDayDeduction</t>
+    <t xml:space="preserve">72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for Late Mark Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.fullday.TestFirstHalfAppliedAndPendingForLateMarkFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and approved for Late Mark Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.fullday.TestSecondHalfAppliedAndApprovedForLateMarkFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and pending for Late Mark Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.fullday.TestSecondHalfAppliedAndPendingForLateMarkFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and approved for Late Mark Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.fullday.TestFullDayAppliedAndApprovedForLateMarkFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and pending for Late Mark Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.fullday.TestFullDayAppliedAndPendingForLateMarkFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when no leave is applied for Late Mark Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.fullday.TestForLateMarkFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and approved for Late Mark Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.halfday.TestFirstHalfAppliedAndApprovedForLateMarkHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LateMarkHalfDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for Late Mark Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.halfday.TestFirstHalfAppliedAndPendingForLateMarkHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and approved for Late Mark Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.halfday.TestSecondHalfAppliedAndApprovedForLateMarkHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and pending for Late Mark Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.halfday.TestSecondHalfAppliedAndPendingForLateMarkHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and approved for Late Mark Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.halfday.TestFullDayAppliedAndApprovedForLateMarkHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and pending for Late Mark Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.halfday.TestFullDayAppliedAndPendingForLateMarkHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when no leave is applied for Late Mark Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.halfday.TestForLateMarkHalfDayDeduction</t>
   </si>
 </sst>
 </file>
@@ -833,10 +968,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J71"/>
+  <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A72" activeCellId="0" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1553,12 +1688,12 @@
         <v>18</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>11</v>
@@ -1570,10 +1705,10 @@
         <v>13</v>
       </c>
       <c r="E23" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" s="0" t="s">
         <v>85</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>86</v>
       </c>
       <c r="G23" s="0" t="s">
         <v>16</v>
@@ -1590,7 +1725,7 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>11</v>
@@ -1602,10 +1737,10 @@
         <v>13</v>
       </c>
       <c r="E24" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="0" t="s">
         <v>88</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>89</v>
       </c>
       <c r="G24" s="0" t="s">
         <v>16</v>
@@ -1622,7 +1757,7 @@
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>11</v>
@@ -1634,10 +1769,10 @@
         <v>13</v>
       </c>
       <c r="E25" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" s="0" t="s">
         <v>91</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>92</v>
       </c>
       <c r="G25" s="0" t="s">
         <v>16</v>
@@ -1654,7 +1789,7 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>11</v>
@@ -1666,10 +1801,10 @@
         <v>13</v>
       </c>
       <c r="E26" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" s="0" t="s">
         <v>94</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>95</v>
       </c>
       <c r="G26" s="0" t="s">
         <v>16</v>
@@ -1686,7 +1821,7 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>11</v>
@@ -1698,10 +1833,10 @@
         <v>13</v>
       </c>
       <c r="E27" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="F27" s="0" t="s">
         <v>97</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>98</v>
       </c>
       <c r="G27" s="0" t="s">
         <v>16</v>
@@ -1718,7 +1853,7 @@
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>11</v>
@@ -1730,10 +1865,10 @@
         <v>13</v>
       </c>
       <c r="E28" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F28" s="0" t="s">
         <v>100</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>101</v>
       </c>
       <c r="G28" s="0" t="s">
         <v>16</v>
@@ -1750,7 +1885,7 @@
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>11</v>
@@ -1762,10 +1897,10 @@
         <v>36</v>
       </c>
       <c r="E29" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="F29" s="0" t="s">
         <v>103</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>104</v>
       </c>
       <c r="G29" s="0" t="s">
         <v>16</v>
@@ -1777,33 +1912,33 @@
         <v>18</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="B30" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="0" t="s">
+      <c r="D30" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="D30" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="0" t="s">
+      <c r="F30" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="F30" s="0" t="s">
-        <v>108</v>
-      </c>
       <c r="G30" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I30" s="0" t="s">
         <v>18</v>
@@ -1814,28 +1949,28 @@
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="B31" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="0" t="s">
+      <c r="F31" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="F31" s="0" t="s">
-        <v>111</v>
-      </c>
       <c r="G31" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I31" s="0" t="s">
         <v>18</v>
@@ -1846,28 +1981,28 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="B32" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="0" t="s">
+      <c r="F32" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="F32" s="0" t="s">
-        <v>114</v>
-      </c>
       <c r="G32" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I32" s="0" t="s">
         <v>18</v>
@@ -1878,28 +2013,28 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="B33" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="0" t="s">
+      <c r="F33" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="F33" s="0" t="s">
-        <v>117</v>
-      </c>
       <c r="G33" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I33" s="0" t="s">
         <v>18</v>
@@ -1910,28 +2045,28 @@
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="B34" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="0" t="s">
+      <c r="F34" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="F34" s="0" t="s">
-        <v>120</v>
-      </c>
       <c r="G34" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I34" s="0" t="s">
         <v>18</v>
@@ -1942,28 +2077,28 @@
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="B35" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="0" t="s">
+      <c r="F35" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="F35" s="0" t="s">
-        <v>123</v>
-      </c>
       <c r="G35" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I35" s="0" t="s">
         <v>18</v>
@@ -1974,60 +2109,60 @@
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>36</v>
       </c>
       <c r="E36" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="F36" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="F36" s="0" t="s">
-        <v>126</v>
-      </c>
       <c r="G36" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I36" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="B37" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="0" t="s">
+      <c r="F37" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="F37" s="0" t="s">
-        <v>129</v>
-      </c>
       <c r="G37" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I37" s="0" t="s">
         <v>18</v>
@@ -2038,28 +2173,28 @@
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="B38" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" s="0" t="s">
+      <c r="F38" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="F38" s="0" t="s">
-        <v>132</v>
-      </c>
       <c r="G38" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I38" s="0" t="s">
         <v>18</v>
@@ -2070,28 +2205,28 @@
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="B39" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="0" t="s">
+      <c r="F39" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="F39" s="0" t="s">
-        <v>135</v>
-      </c>
       <c r="G39" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I39" s="0" t="s">
         <v>18</v>
@@ -2102,28 +2237,28 @@
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="B40" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="0" t="s">
+      <c r="F40" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="F40" s="0" t="s">
-        <v>138</v>
-      </c>
       <c r="G40" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I40" s="0" t="s">
         <v>18</v>
@@ -2134,28 +2269,28 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="B41" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" s="0" t="s">
+      <c r="F41" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="F41" s="0" t="s">
-        <v>141</v>
-      </c>
       <c r="G41" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I41" s="0" t="s">
         <v>18</v>
@@ -2166,28 +2301,28 @@
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="B42" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="0" t="s">
+      <c r="F42" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="F42" s="0" t="s">
-        <v>144</v>
-      </c>
       <c r="G42" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I42" s="0" t="s">
         <v>18</v>
@@ -2198,60 +2333,60 @@
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>36</v>
       </c>
       <c r="E43" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="F43" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="F43" s="0" t="s">
-        <v>147</v>
-      </c>
       <c r="G43" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I43" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="B44" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44" s="0" t="s">
+      <c r="D44" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="D44" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44" s="0" t="s">
+      <c r="F44" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="F44" s="0" t="s">
-        <v>151</v>
-      </c>
       <c r="G44" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I44" s="0" t="s">
         <v>18</v>
@@ -2262,28 +2397,28 @@
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="B45" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="D45" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E45" s="0" t="s">
+      <c r="F45" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="F45" s="0" t="s">
-        <v>154</v>
-      </c>
       <c r="G45" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I45" s="0" t="s">
         <v>18</v>
@@ -2294,28 +2429,28 @@
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="B46" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E46" s="0" t="s">
+      <c r="F46" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="F46" s="0" t="s">
-        <v>157</v>
-      </c>
       <c r="G46" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I46" s="0" t="s">
         <v>18</v>
@@ -2326,28 +2461,28 @@
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="B47" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="D47" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47" s="0" t="s">
+      <c r="F47" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="F47" s="0" t="s">
-        <v>160</v>
-      </c>
       <c r="G47" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I47" s="0" t="s">
         <v>18</v>
@@ -2358,28 +2493,28 @@
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="B48" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="D48" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48" s="0" t="s">
+      <c r="F48" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="F48" s="0" t="s">
-        <v>163</v>
-      </c>
       <c r="G48" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I48" s="0" t="s">
         <v>18</v>
@@ -2390,28 +2525,28 @@
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="B49" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="D49" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49" s="0" t="s">
+      <c r="F49" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="F49" s="0" t="s">
-        <v>166</v>
-      </c>
       <c r="G49" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I49" s="0" t="s">
         <v>18</v>
@@ -2422,60 +2557,60 @@
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>36</v>
       </c>
       <c r="E50" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="F50" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="F50" s="0" t="s">
-        <v>169</v>
-      </c>
       <c r="G50" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I50" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="B51" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="D51" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E51" s="0" t="s">
+      <c r="F51" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="F51" s="0" t="s">
-        <v>172</v>
-      </c>
       <c r="G51" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I51" s="0" t="s">
         <v>18</v>
@@ -2486,28 +2621,28 @@
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="B52" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="D52" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E52" s="0" t="s">
+      <c r="F52" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="F52" s="0" t="s">
-        <v>175</v>
-      </c>
       <c r="G52" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I52" s="0" t="s">
         <v>18</v>
@@ -2518,28 +2653,28 @@
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="B53" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="D53" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53" s="0" t="s">
+      <c r="F53" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="F53" s="0" t="s">
-        <v>178</v>
-      </c>
       <c r="G53" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I53" s="0" t="s">
         <v>18</v>
@@ -2550,28 +2685,28 @@
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="B54" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="D54" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E54" s="0" t="s">
+      <c r="F54" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="F54" s="0" t="s">
-        <v>181</v>
-      </c>
       <c r="G54" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I54" s="0" t="s">
         <v>18</v>
@@ -2582,28 +2717,28 @@
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="B55" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="D55" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E55" s="0" t="s">
+      <c r="F55" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="F55" s="0" t="s">
-        <v>184</v>
-      </c>
       <c r="G55" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I55" s="0" t="s">
         <v>18</v>
@@ -2614,28 +2749,28 @@
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="B56" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="D56" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E56" s="0" t="s">
+      <c r="F56" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="F56" s="0" t="s">
-        <v>187</v>
-      </c>
       <c r="G56" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I56" s="0" t="s">
         <v>18</v>
@@ -2646,60 +2781,60 @@
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D57" s="0" t="s">
         <v>36</v>
       </c>
       <c r="E57" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="F57" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="F57" s="0" t="s">
-        <v>190</v>
-      </c>
       <c r="G57" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I57" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="B58" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" s="0" t="s">
+      <c r="D58" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="D58" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E58" s="0" t="s">
+      <c r="F58" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="F58" s="0" t="s">
-        <v>194</v>
-      </c>
       <c r="G58" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I58" s="0" t="s">
         <v>18</v>
@@ -2710,28 +2845,28 @@
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="B59" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="D59" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E59" s="0" t="s">
+      <c r="F59" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="F59" s="0" t="s">
-        <v>197</v>
-      </c>
       <c r="G59" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I59" s="0" t="s">
         <v>18</v>
@@ -2742,28 +2877,28 @@
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="B60" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C60" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="D60" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E60" s="0" t="s">
+      <c r="F60" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="F60" s="0" t="s">
-        <v>200</v>
-      </c>
       <c r="G60" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I60" s="0" t="s">
         <v>18</v>
@@ -2774,28 +2909,28 @@
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="B61" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C61" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="D61" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E61" s="0" t="s">
+      <c r="F61" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="F61" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="G61" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I61" s="0" t="s">
         <v>18</v>
@@ -2806,28 +2941,28 @@
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="B62" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C62" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="D62" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E62" s="0" t="s">
+      <c r="F62" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="F62" s="0" t="s">
-        <v>206</v>
-      </c>
       <c r="G62" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I62" s="0" t="s">
         <v>18</v>
@@ -2838,28 +2973,28 @@
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="B63" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C63" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="D63" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E63" s="0" t="s">
+      <c r="F63" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="F63" s="0" t="s">
-        <v>209</v>
-      </c>
       <c r="G63" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I63" s="0" t="s">
         <v>18</v>
@@ -2870,60 +3005,60 @@
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B64" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>36</v>
       </c>
       <c r="E64" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="F64" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="F64" s="0" t="s">
-        <v>212</v>
-      </c>
       <c r="G64" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I64" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="B65" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C65" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="D65" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E65" s="0" t="s">
+      <c r="F65" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="F65" s="0" t="s">
-        <v>215</v>
-      </c>
       <c r="G65" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I65" s="0" t="s">
         <v>18</v>
@@ -2934,28 +3069,28 @@
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="B66" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C66" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="D66" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E66" s="0" t="s">
+      <c r="F66" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="F66" s="0" t="s">
-        <v>218</v>
-      </c>
       <c r="G66" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I66" s="0" t="s">
         <v>18</v>
@@ -2966,28 +3101,28 @@
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="B67" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C67" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="D67" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E67" s="0" t="s">
+      <c r="F67" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="F67" s="0" t="s">
-        <v>221</v>
-      </c>
       <c r="G67" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I67" s="0" t="s">
         <v>18</v>
@@ -2998,28 +3133,28 @@
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="B68" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C68" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="D68" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E68" s="0" t="s">
+      <c r="F68" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="F68" s="0" t="s">
-        <v>224</v>
-      </c>
       <c r="G68" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I68" s="0" t="s">
         <v>18</v>
@@ -3030,28 +3165,28 @@
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="B69" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C69" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="D69" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E69" s="0" t="s">
+      <c r="F69" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="F69" s="0" t="s">
-        <v>227</v>
-      </c>
       <c r="G69" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I69" s="0" t="s">
         <v>18</v>
@@ -3062,28 +3197,28 @@
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="B70" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C70" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="D70" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E70" s="0" t="s">
+      <c r="F70" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="F70" s="0" t="s">
-        <v>230</v>
-      </c>
       <c r="G70" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I70" s="0" t="s">
         <v>18</v>
@@ -3094,36 +3229,494 @@
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B71" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D71" s="0" t="s">
         <v>36</v>
       </c>
       <c r="E71" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="F71" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="F71" s="0" t="s">
+      <c r="G71" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H71" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="I71" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J71" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="G71" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H71" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="I71" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="J71" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
+      <c r="B72" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="F72" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="G72" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H72" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="I72" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J72" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="F73" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="G73" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H73" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="I73" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J73" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="F74" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="G74" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H74" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="I74" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J74" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="F75" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="G75" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H75" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="I75" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J75" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="F76" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="G76" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H76" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="I76" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J76" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="F77" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="G77" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H77" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="I77" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J77" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="F78" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="G78" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H78" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="I78" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J78" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="F79" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="G79" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H79" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="I79" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J79" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="F80" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="G80" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H80" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="I80" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J80" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="F81" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="G81" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H81" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="I81" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J81" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="F82" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="G82" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H82" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="I82" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J82" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="F83" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="G83" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H83" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="I83" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J83" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="F84" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="G84" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H84" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="I84" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J84" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E85" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="F85" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="G85" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H85" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="I85" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J85" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F94" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/attendance/src/main/resources/LeaveDeductions.xlsx
+++ b/attendance/src/main/resources/LeaveDeductions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="415">
   <si>
     <t xml:space="preserve">TCID</t>
   </si>
@@ -76,787 +76,1195 @@
     <t xml:space="preserve">AbsentFullDay</t>
   </si>
   <si>
+    <t xml:space="preserve">All</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for Absent Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.absent.fullday.TestFirstHalfAppliedAndPendingForAbsentFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and approved for Absent Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.absent.fullday.TestSecondHalfAppliedAndApprovedForAbsentFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and pending for Absent Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.absent.fullday.TestSecondHalfAppliedAndPendingForAbsentFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and approved for Absent Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.absent.fullday.TestFullDayAppliedAndApprovedForAbsentFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and pending for Absent Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.absent.fullday.TestFullDayAppliedAndPendingForAbsentFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when no leave is applied for Absent Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.absent.fullday.TestForAbsentFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and approved for Absent Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.absent.halfday.TestFirstHalfAppliedAndApprovedForAbsentHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AbsentHalfDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for Absent Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.absent.halfday.TestFirstHalfAppliedAndPendingForAbsentHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and approved for Absent Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.absent.halfday.TestSecondHalfAppliedAndApprovedForAbsentHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and pending for Absent Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.absent.halfday.TestSecondHalfAppliedAndPendingForAbsentHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and approved for Absent Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.absent.halfday.TestFullDayAppliedAndApprovedForAbsentHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and pending for Absent Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.absent.halfday.TestFullDayAppliedAndPendingForAbsentHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when no leave is applied for Absent Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.absent.halfday.TestForAbsentHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TotalDuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and approved for Total Work Duration Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.totalduration.fullday.TestFirstHalfAppliedAndApprovedForTotalDurationFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for Total Work Duration Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.totalduration.fullday.TestFirstHalfAppliedAndPendingForTotalDurationFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and approved for Total Work Duration Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.totalduration.fullday.TestSecondHalfAppliedAndApprovedForTotalDurationFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and pending for Total Work Duration Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.totalduration.fullday.TestSecondHalfAppliedAndPendingForTotalDurationFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and approved for Total Work Duration Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.totalduration.fullday.TestFullDayAppliedAndApprovedForTotalDurationFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and pending for Total Work Duration Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.totalduration.fullday.TestFullDayAppliedAndPendingForTotalDurationFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when no leave is applied for Total Work Duration Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.totalduration.fullday.TestForTotalDurationFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and approved for Total Work Duration Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.totalduration.halfday.TestFirstHalfAppliedAndApprovedForTotalDurationHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for Total Work Duration Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.totalduration.halfday.TestFirstHalfAppliedAndPendingForTotalDurationHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and approved for Total Work Duration Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.totalduration.halfday.TestSecondHalfAppliedAndApprovedForTotalDurationHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and pending for Total Work Duration Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.totalduration.halfday.TestSecondHalfAppliedAndPendingForTotalDurationHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and approved for Total Work Duration Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.totalduration.halfday.TestFullDayAppliedAndApprovedForTotalDurationHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and pending for Total Work Duration Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.totalduration.halfday.TestFullDayAppliedAndPendingForTotalDurationHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when no leave is applied for Total Work Duration Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.totalduration.halfday.TestForTotalDurationHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FinalDuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and approved for Final Work Duration Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.finalduration.fullday.TestFirstHalfAppliedAndApprovedForFinalDurationFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for Final Work Duration Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.finalduration.fullday.TestFirstHalfAppliedAndPendingForFinalDurationFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and approved for Final Work Duration Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.finalduration.fullday.TestSecondHalfAppliedAndApprovedForFinalDurationFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and pending for Final Work Duration Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.finalduration.fullday.TestSecondHalfAppliedAndPendingForFinalDurationFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and approved for Final Work Duration Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.finalduration.fullday.TestFullDayAppliedAndApprovedForFinalDurationFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and pending for Final Work Duration Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.finalduration.fullday.TestFullDayAppliedAndPendingForFinalDurationFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when no leave is applied for Final Work Duration Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.finalduration.fullday.TestForFinalDurationFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and approved for Final Work Duration Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.finalduration.halfday.TestFirstHalfAppliedAndApprovedForFinalDurationHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for Final Work Duration Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.finalduration.halfday.TestFirstHalfAppliedAndPendingForFinalDurationHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and approved for Final Work Duration Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.finalduration.halfday.TestSecondHalfAppliedAndApprovedForFinalDurationHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and pending for Final Work Duration Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.finalduration.halfday.TestSecondHalfAppliedAndPendingForFinalDurationHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and approved for Final Work Duration Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.finalduration.halfday.TestFullDayAppliedAndApprovedForFinalDurationHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and pending for Final Work Duration Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.finalduration.halfday.TestFullDayAppliedAndPendingForFinalDurationHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when no leave is applied for Final Work Duration Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.finalduration.halfday.TestForFinalDurationHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LateDuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and approved for Late Duration Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateduration.fullday.TestFirstHalfAppliedAndApprovedForLateByFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for Late Duration Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateduration.fullday.TestFirstHalfAppliedAndPendingForLateByFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and approved for Late Duration Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateduration.fullday.TestSecondHalfAppliedAndApprovedForLateByFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and pending for Late Duration Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateduration.fullday.TestSecondHalfAppliedAndPendingForLateByFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and approved for Late Duration Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateduration.fullday.TestFullDayAppliedAndApprovedForLateByFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and pending for Late Duration Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateduration.fullday.TestFullDayAppliedAndPendingForLateByFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when no leave is applied for Late Duration Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateduration.fullday.TestForLateByFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and approved for Late Duration Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateduration.halfday.TestFirstHalfAppliedAndApprovedForLateByHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for Late Duration Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateduration.halfday.TestFirstHalfAppliedAndPendingForLateByHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and approved for Late Duration Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateduration.halfday.TestSecondHalfAppliedAndApprovedForLateByHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and pending for Late Duration Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateduration.halfday.TestSecondHalfAppliedAndPendingForLateByHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and approved for Late Duration Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateduration.halfday.TestFullDayAppliedAndApprovedForLateByHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and pending for Late Duration Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateduration.halfday.TestFullDayAppliedAndPendingForLateByHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when no leave is applied for Late Duration Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateduration.halfday.TestForLateByHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EarlyDuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and approved for Early Duration Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlyduration.fullday.TestFirstHalfAppliedAndApprovedForEarlyByFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for Early Duration Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlyduration.fullday.TestFirstHalfAppliedAndPendingForEarlyByFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and approved for Early Duration Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlyduration.fullday.TestSecondHalfAppliedAndApprovedForEarlyByFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and pending for Early Duration Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlyduration.fullday.TestSecondHalfAppliedAndPendingForEarlyByFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and approved for Early Duration Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlyduration.fullday.TestFullDayAppliedAndApprovedForEarlyByFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and pending for Early Duration Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlyduration.fullday.TestFullDayAppliedAndPendingForEarlyByFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when no leave is applied for Early Duration Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlyduration.fullday.TestForEarlyByFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and approved for Early Duration Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlyduration.halfday.TestFirstHalfAppliedAndApprovedForEarlyByHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for Early Duration Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlyduration.halfday.TestFirstHalfAppliedAndPendingForEarlyByHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and approved for Early Duration Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlyduration.halfday.TestSecondHalfAppliedAndApprovedForEarlyByHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and pending for Early Duration Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlyduration.halfday.TestSecondHalfAppliedAndPendingForEarlyByHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and approved for Early Duration Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlyduration.halfday.TestFullDayAppliedAndApprovedForEarlyByHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and pending for Early Duration Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlyduration.halfday.TestFullDayAppliedAndPendingForEarlyByHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when no leave is applied for Early Duration Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlyduration.halfday.TestForEarlyByHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LateMark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and approved for Late Mark Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.fullday.TestFirstHalfAppliedAndApprovedForLateMarkFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LateMarkFullDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for Late Mark Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.fullday.TestFirstHalfAppliedAndPendingForLateMarkFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and approved for Late Mark Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.fullday.TestSecondHalfAppliedAndApprovedForLateMarkFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and pending for Late Mark Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.fullday.TestSecondHalfAppliedAndPendingForLateMarkFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and approved for Late Mark Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.fullday.TestFullDayAppliedAndApprovedForLateMarkFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and pending for Late Mark Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.fullday.TestFullDayAppliedAndPendingForLateMarkFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when no leave is applied for Late Mark Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.fullday.TestForLateMarkFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and approved for Late Mark Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.halfday.TestFirstHalfAppliedAndApprovedForLateMarkHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LateMarkHalfDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for Late Mark Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.halfday.TestFirstHalfAppliedAndPendingForLateMarkHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and approved for Late Mark Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.halfday.TestSecondHalfAppliedAndApprovedForLateMarkHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and pending for Late Mark Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.halfday.TestSecondHalfAppliedAndPendingForLateMarkHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and approved for Late Mark Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.halfday.TestFullDayAppliedAndApprovedForLateMarkHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and pending for Late Mark Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.halfday.TestFullDayAppliedAndPendingForLateMarkHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when no leave is applied for Late Mark Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.halfday.TestForLateMarkHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EarlyMark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and approved for Early Mark Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlymark.fullday.TestFirstHalfAppliedAndApprovedForEarlyMarkFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EarlyMarkFullDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for Early Mark Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlymark.fullday.TestFirstHalfAppliedAndPendingForEarlyMarkFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and approved for Early Mark Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlymark.fullday.TestSecondHalfAppliedAndApprovedForEarlyMarkFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and pending for Early Mark Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlymark.fullday.TestSecondHalfAppliedAndPendingForEarlyMarkFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and approved for Early Mark Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlymark.fullday.TestFullDayAppliedAndApprovedForEarlyMarkFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and pending for Early Mark Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlymark.fullday.TestFullDayAppliedAndPendingForEarlyMarkFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when no leave is applied for Early Mark Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlymark.fullday.TestForEarlyMarkFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and approved for Early Mark Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlymark.halfday.TestFirstHalfAppliedAndApprovedForEarlyMarkHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EarlyMarkHalfDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for Early Mark Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlymark.halfday.TestFirstHalfAppliedAndPendingForEarlyMarkHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and approved for Early Mark Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlymark.halfday.TestSecondHalfAppliedAndApprovedForEarlyMarkHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and pending for Early Mark Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlymark.halfday.TestSecondHalfAppliedAndPendingForEarlyMarkHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and approved for Early Mark Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlymark.halfday.TestFullDayAppliedAndApprovedForEarlyMarkHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and pending for Early Mark Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlymark.halfday.TestFullDayAppliedAndPendingForEarlyMarkHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when no leave is applied for Early Mark Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlymark.halfday.TestForEarlyMarkHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LateEarly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and approved for LateEarly Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateearly.fullday.TestFirstHalfAppliedAndApprovedForLateEarlyFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LateEarlyFullDay</t>
+  </si>
+  <si>
     <t xml:space="preserve">1-32</t>
   </si>
   <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for Absent Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.absent.fullday.TestFirstHalfAppliedAndPendingForAbsentFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and approved for Absent Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.absent.fullday.TestSecondHalfAppliedAndApprovedForAbsentFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and pending for Absent Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.absent.fullday.TestSecondHalfAppliedAndPendingForAbsentFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and approved for Absent Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.absent.fullday.TestFullDayAppliedAndApprovedForAbsentFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and pending for Absent Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.absent.fullday.TestFullDayAppliedAndPendingForAbsentFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sanity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when no leave is applied for Absent Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.absent.fullday.TestForAbsentFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and approved for Absent Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.absent.halfday.TestFirstHalfAppliedAndApprovedForAbsentHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AbsentHalfDay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for Absent Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.absent.halfday.TestFirstHalfAppliedAndPendingForAbsentHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and approved for Absent Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.absent.halfday.TestSecondHalfAppliedAndApprovedForAbsentHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and pending for Absent Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.absent.halfday.TestSecondHalfAppliedAndPendingForAbsentHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and approved for Absent Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.absent.halfday.TestFullDayAppliedAndApprovedForAbsentHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and pending for Absent Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.absent.halfday.TestFullDayAppliedAndPendingForAbsentHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when no leave is applied for Absent Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.absent.halfday.TestForAbsentHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TotalDuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and approved for Total Work Duration Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.totalduration.fullday.TestFirstHalfAppliedAndApprovedForTotalDurationFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for Total Work Duration Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.totalduration.fullday.TestFirstHalfAppliedAndPendingForTotalDurationFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and approved for Total Work Duration Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.totalduration.fullday.TestSecondHalfAppliedAndApprovedForTotalDurationFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and pending for Total Work Duration Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.totalduration.fullday.TestSecondHalfAppliedAndPendingForTotalDurationFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and approved for Total Work Duration Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.totalduration.fullday.TestFullDayAppliedAndApprovedForTotalDurationFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and pending for Total Work Duration Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.totalduration.fullday.TestFullDayAppliedAndPendingForTotalDurationFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when no leave is applied for Total Work Duration Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.totalduration.fullday.TestForTotalDurationFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and approved for Total Work Duration Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.totalduration.halfday.TestFirstHalfAppliedAndApprovedForTotalDurationHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for Total Work Duration Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.totalduration.halfday.TestFirstHalfAppliedAndPendingForTotalDurationHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and approved for Total Work Duration Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.totalduration.halfday.TestSecondHalfAppliedAndApprovedForTotalDurationHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and pending for Total Work Duration Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.totalduration.halfday.TestSecondHalfAppliedAndPendingForTotalDurationHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and approved for Total Work Duration Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.totalduration.halfday.TestFullDayAppliedAndApprovedForTotalDurationHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and pending for Total Work Duration Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.totalduration.halfday.TestFullDayAppliedAndPendingForTotalDurationHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when no leave is applied for Total Work Duration Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.totalduration.halfday.TestForTotalDurationHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FinalDuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and approved for Final Work Duration Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.finalduration.fullday.TestFirstHalfAppliedAndApprovedForFinalDurationFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for Final Work Duration Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.finalduration.fullday.TestFirstHalfAppliedAndPendingForFinalDurationFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and approved for Final Work Duration Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.finalduration.fullday.TestSecondHalfAppliedAndApprovedForFinalDurationFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and pending for Final Work Duration Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.finalduration.fullday.TestSecondHalfAppliedAndPendingForFinalDurationFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and approved for Final Work Duration Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.finalduration.fullday.TestFullDayAppliedAndApprovedForFinalDurationFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and pending for Final Work Duration Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.finalduration.fullday.TestFullDayAppliedAndPendingForFinalDurationFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when no leave is applied for Final Work Duration Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.finalduration.fullday.TestForFinalDurationFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and approved for Final Work Duration Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.finalduration.halfday.TestFirstHalfAppliedAndApprovedForFinalDurationHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for Final Work Duration Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.finalduration.halfday.TestFirstHalfAppliedAndPendingForFinalDurationHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and approved for Final Work Duration Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.finalduration.halfday.TestSecondHalfAppliedAndApprovedForFinalDurationHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and pending for Final Work Duration Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.finalduration.halfday.TestSecondHalfAppliedAndPendingForFinalDurationHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and approved for Final Work Duration Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.finalduration.halfday.TestFullDayAppliedAndApprovedForFinalDurationHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and pending for Final Work Duration Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.finalduration.halfday.TestFullDayAppliedAndPendingForFinalDurationHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when no leave is applied for Final Work Duration Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.finalduration.halfday.TestForFinalDurationHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LateDuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and approved for Late Duration Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateduration.fullday.TestFirstHalfAppliedAndApprovedForLateByFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for Late Duration Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateduration.fullday.TestFirstHalfAppliedAndPendingForLateByFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and approved for Late Duration Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateduration.fullday.TestSecondHalfAppliedAndApprovedForLateByFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and pending for Late Duration Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateduration.fullday.TestSecondHalfAppliedAndPendingForLateByFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and approved for Late Duration Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateduration.fullday.TestFullDayAppliedAndApprovedForLateByFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and pending for Late Duration Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateduration.fullday.TestFullDayAppliedAndPendingForLateByFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when no leave is applied for Late Duration Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateduration.fullday.TestForLateByFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and approved for Late Duration Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateduration.halfday.TestFirstHalfAppliedAndApprovedForLateByHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for Late Duration Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateduration.halfday.TestFirstHalfAppliedAndPendingForLateByHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and approved for Late Duration Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateduration.halfday.TestSecondHalfAppliedAndApprovedForLateByHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and pending for Late Duration Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateduration.halfday.TestSecondHalfAppliedAndPendingForLateByHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and approved for Late Duration Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateduration.halfday.TestFullDayAppliedAndApprovedForLateByHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and pending for Late Duration Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateduration.halfday.TestFullDayAppliedAndPendingForLateByHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when no leave is applied for Late Duration Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateduration.halfday.TestForLateByHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EarlyDuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and approved for Early Duration Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlyduration.fullday.TestFirstHalfAppliedAndApprovedForEarlyByFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for Early Duration Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlyduration.fullday.TestFirstHalfAppliedAndPendingForEarlyByFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and approved for Early Duration Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlyduration.fullday.TestSecondHalfAppliedAndApprovedForEarlyByFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and pending for Early Duration Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlyduration.fullday.TestSecondHalfAppliedAndPendingForEarlyByFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and approved for Early Duration Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlyduration.fullday.TestFullDayAppliedAndApprovedForEarlyByFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and pending for Early Duration Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlyduration.fullday.TestFullDayAppliedAndPendingForEarlyByFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when no leave is applied for Early Duration Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlyduration.fullday.TestForEarlyByFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and approved for Early Duration Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlyduration.halfday.TestFirstHalfAppliedAndApprovedForEarlyByHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for Early Duration Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlyduration.halfday.TestFirstHalfAppliedAndPendingForEarlyByHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and approved for Early Duration Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlyduration.halfday.TestSecondHalfAppliedAndApprovedForEarlyByHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and pending for Early Duration Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlyduration.halfday.TestSecondHalfAppliedAndPendingForEarlyByHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and approved for Early Duration Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlyduration.halfday.TestFullDayAppliedAndApprovedForEarlyByHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and pending for Early Duration Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlyduration.halfday.TestFullDayAppliedAndPendingForEarlyByHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when no leave is applied for Early Duration Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlyduration.halfday.TestForEarlyByHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LateMark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and approved for Late Mark Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.fullday.TestFirstHalfAppliedAndApprovedForLateMarkFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LateMarkFullDay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for Late Mark Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.fullday.TestFirstHalfAppliedAndPendingForLateMarkFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and approved for Late Mark Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.fullday.TestSecondHalfAppliedAndApprovedForLateMarkFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and pending for Late Mark Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.fullday.TestSecondHalfAppliedAndPendingForLateMarkFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and approved for Late Mark Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.fullday.TestFullDayAppliedAndApprovedForLateMarkFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and pending for Late Mark Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.fullday.TestFullDayAppliedAndPendingForLateMarkFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when no leave is applied for Late Mark Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.fullday.TestForLateMarkFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and approved for Late Mark Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.halfday.TestFirstHalfAppliedAndApprovedForLateMarkHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LateMarkHalfDay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for Late Mark Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.halfday.TestFirstHalfAppliedAndPendingForLateMarkHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and approved for Late Mark Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.halfday.TestSecondHalfAppliedAndApprovedForLateMarkHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and pending for Late Mark Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.halfday.TestSecondHalfAppliedAndPendingForLateMarkHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and approved for Late Mark Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.halfday.TestFullDayAppliedAndApprovedForLateMarkHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and pending for Late Mark Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.halfday.TestFullDayAppliedAndPendingForLateMarkHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when no leave is applied for Late Mark Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.halfday.TestForLateMarkHalfDayDeduction</t>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for LateEarly Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateearly.fullday.TestFirstHalfAppliedAndPendingForLateEarlyFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and approved for LateEarly Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateearly.fullday.TestSecondHalfAppliedAndApprovedForLateEarlyFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and pending for LateEarly Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateearly.fullday.TestSecondHalfAppliedAndPendingForLateEarlyFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and approved for LateEarly Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateearly.fullday.TestFullDayAppliedAndApprovedForLateEarlyFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and pending for LateEarly Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateearly.fullday.TestFullDayAppliedAndPendingForLateEarlyFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when no leave is applied for LateEarly Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateearly.fullday.TestForLateEarlyFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and approved for LateEarly Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateearly.halfday.TestFirstHalfAppliedAndApprovedForLateEarlyHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LateEarlyHalfDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for LateEarly Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateearly.halfday.TestFirstHalfAppliedAndPendingForLateEarlyHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and approved for LateEarly Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateearly.halfday.TestSecondHalfAppliedAndApprovedForLateEarlyHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and pending for LateEarly Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateearly.halfday.TestSecondHalfAppliedAndPendingForLateEarlyHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and approved for LateEarly Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateearly.halfday.TestFullDayAppliedAndApprovedForLateEarlyHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and pending for LateEarly Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateearly.halfday.TestFullDayAppliedAndPendingForLateEarlyHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when no leave is applied for LateEarly Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateearly.halfday.TestForLateEarlyHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and approved for Multiple Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.multiple.fullday.TestFirstHalfAppliedAndApprovedForFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LateEarlyMarkFullDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for Multiple Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.multiple.fullday.TestFirstHalfAppliedAndPendingForFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and approved for Multiple Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.multiple.fullday.TestSecondHalfAppliedAndApprovedForFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and pending for Multiple Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.multiple.fullday.TestSecondHalfAppliedAndPendingForFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and approved for Multiple Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.multiple.fullday.TestFullDayAppliedAndApprovedForFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and pending for Multiple Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.multiple.fullday.TestFullDayAppliedAndPendingForFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when no leave is applied for Multiple Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.multiple.fullday.TestForFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and approved for Multiple Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.multiple.halfday.TestFirstHalfAppliedAndApprovedForHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LateEarlyMarkHalfDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for Multiple Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.multiple.halfday.TestFirstHalfAppliedAndPendingForHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and approved for Multiple Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.multiple.halfday.TestSecondHalfAppliedAndApprovedForHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and pending for Multiple Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.multiple.halfday.TestSecondHalfAppliedAndPendingForHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and approved for Multiple Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.multiple.halfday.TestFullDayAppliedAndApprovedForHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and pending for Multiple Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.multiple.halfday.TestFullDayAppliedAndPendingForHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when no leave is applied for Multiple Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.multiple.halfday.TestForHalfDayDeduction</t>
   </si>
 </sst>
 </file>
@@ -970,8 +1378,8 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A72" activeCellId="0" sqref="A72"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A116" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A127" activeCellId="0" sqref="A127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3707,15 +4115,1353 @@
         <v>238</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="F86" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="G86" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H86" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="I86" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J86" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="F87" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="G87" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H87" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="I87" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J87" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="F88" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="G88" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H88" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="I88" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J88" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F89" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="G89" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H89" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="I89" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J89" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="F90" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="G90" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H90" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="I90" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J90" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="F91" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="G91" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H91" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="I91" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J91" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="F92" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="G92" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H92" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="I92" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J92" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="F93" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="G93" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H93" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="I93" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J93" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E94" s="0" t="s">
+        <v>307</v>
+      </c>
       <c r="F94" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="G94" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H94" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="I94" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J94" s="0" t="s">
         <v>238</v>
       </c>
     </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E95" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="F95" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="G95" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H95" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="I95" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J95" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E96" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="F96" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="G96" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H96" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="I96" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J96" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="D97" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E97" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="F97" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="G97" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H97" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="I97" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J97" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E98" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="F98" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="G98" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H98" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="I98" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J98" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="D99" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E99" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="F99" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="G99" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H99" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="I99" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J99" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E100" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="F100" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G100" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H100" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="I100" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="J100" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E101" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="F101" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="G101" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H101" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="I101" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="J101" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E102" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="F102" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="G102" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H102" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="I102" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="J102" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="D103" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E103" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="F103" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="G103" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H103" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="I103" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="J103" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E104" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="F104" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="G104" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H104" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="I104" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="J104" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="D105" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E105" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="F105" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="G105" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H105" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="I105" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="J105" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="D106" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E106" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="F106" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="G106" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H106" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="I106" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="J106" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="D107" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E107" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="F107" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="G107" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H107" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="I107" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="J107" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E108" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="F108" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="G108" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H108" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="I108" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="J108" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="D109" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E109" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="F109" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="G109" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H109" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="I109" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="J109" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="D110" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E110" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="F110" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="G110" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H110" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="I110" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="J110" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="D111" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E111" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="F111" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="G111" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H111" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="I111" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="J111" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="D112" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E112" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="F112" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="G112" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H112" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="I112" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="J112" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="D113" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E113" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="F113" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="G113" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H113" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="I113" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="J113" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="D114" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E114" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="F114" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="G114" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H114" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="I114" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="J114" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="D115" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E115" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="F115" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="G115" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H115" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="I115" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="J115" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="D116" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E116" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="F116" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="G116" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H116" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="I116" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="J116" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="D117" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E117" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="F117" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="G117" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H117" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="I117" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="J117" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="D118" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E118" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="F118" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="G118" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H118" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="I118" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="J118" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="D119" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E119" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="F119" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="G119" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H119" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="I119" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="J119" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="D120" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E120" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="F120" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="G120" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H120" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="I120" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="J120" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="D121" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E121" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="F121" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="G121" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H121" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="I121" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="J121" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="D122" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E122" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="F122" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="G122" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H122" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="I122" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="J122" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="D123" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E123" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="F123" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="G123" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H123" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="I123" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="J123" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="D124" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E124" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="F124" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="G124" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H124" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="I124" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="J124" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="D125" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E125" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="F125" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="G125" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H125" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="I125" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="J125" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="D126" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E126" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="F126" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="G126" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H126" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="I126" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="J126" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="D127" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E127" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="F127" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="G127" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H127" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="I127" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="J127" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/attendance/src/main/resources/LeaveDeductions.xlsx
+++ b/attendance/src/main/resources/LeaveDeductions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="404">
   <si>
     <t xml:space="preserve">TCID</t>
   </si>
@@ -736,535 +736,527 @@
     <t xml:space="preserve">LateMarkFullDay</t>
   </si>
   <si>
+    <t xml:space="preserve">72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for Late Mark Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.fullday.TestFirstHalfAppliedAndPendingForLateMarkFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and approved for Late Mark Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.fullday.TestSecondHalfAppliedAndApprovedForLateMarkFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and pending for Late Mark Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.fullday.TestSecondHalfAppliedAndPendingForLateMarkFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and approved for Late Mark Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.fullday.TestFullDayAppliedAndApprovedForLateMarkFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and pending for Late Mark Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.fullday.TestFullDayAppliedAndPendingForLateMarkFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when no leave is applied for Late Mark Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.fullday.TestForLateMarkFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and approved for Late Mark Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.halfday.TestFirstHalfAppliedAndApprovedForLateMarkHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LateMarkHalfDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for Late Mark Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.halfday.TestFirstHalfAppliedAndPendingForLateMarkHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and approved for Late Mark Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.halfday.TestSecondHalfAppliedAndApprovedForLateMarkHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and pending for Late Mark Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.halfday.TestSecondHalfAppliedAndPendingForLateMarkHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and approved for Late Mark Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.halfday.TestFullDayAppliedAndApprovedForLateMarkHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and pending for Late Mark Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.halfday.TestFullDayAppliedAndPendingForLateMarkHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when no leave is applied for Late Mark Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.halfday.TestForLateMarkHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EarlyMark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and approved for Early Mark Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlymark.fullday.TestFirstHalfAppliedAndApprovedForEarlyMarkFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EarlyMarkFullDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for Early Mark Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlymark.fullday.TestFirstHalfAppliedAndPendingForEarlyMarkFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and approved for Early Mark Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlymark.fullday.TestSecondHalfAppliedAndApprovedForEarlyMarkFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and pending for Early Mark Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlymark.fullday.TestSecondHalfAppliedAndPendingForEarlyMarkFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and approved for Early Mark Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlymark.fullday.TestFullDayAppliedAndApprovedForEarlyMarkFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and pending for Early Mark Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlymark.fullday.TestFullDayAppliedAndPendingForEarlyMarkFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when no leave is applied for Early Mark Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlymark.fullday.TestForEarlyMarkFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and approved for Early Mark Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlymark.halfday.TestFirstHalfAppliedAndApprovedForEarlyMarkHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EarlyMarkHalfDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for Early Mark Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlymark.halfday.TestFirstHalfAppliedAndPendingForEarlyMarkHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and approved for Early Mark Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlymark.halfday.TestSecondHalfAppliedAndApprovedForEarlyMarkHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and pending for Early Mark Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlymark.halfday.TestSecondHalfAppliedAndPendingForEarlyMarkHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and approved for Early Mark Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlymark.halfday.TestFullDayAppliedAndApprovedForEarlyMarkHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and pending for Early Mark Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlymark.halfday.TestFullDayAppliedAndPendingForEarlyMarkHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when no leave is applied for Early Mark Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlymark.halfday.TestForEarlyMarkHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LateEarly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and approved for LateEarly Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateearly.fullday.TestFirstHalfAppliedAndApprovedForLateEarlyFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LateEarlyFullDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for LateEarly Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateearly.fullday.TestFirstHalfAppliedAndPendingForLateEarlyFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and approved for LateEarly Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateearly.fullday.TestSecondHalfAppliedAndApprovedForLateEarlyFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and pending for LateEarly Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateearly.fullday.TestSecondHalfAppliedAndPendingForLateEarlyFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and approved for LateEarly Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateearly.fullday.TestFullDayAppliedAndApprovedForLateEarlyFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and pending for LateEarly Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateearly.fullday.TestFullDayAppliedAndPendingForLateEarlyFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when no leave is applied for LateEarly Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateearly.fullday.TestForLateEarlyFullDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and approved for LateEarly Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateearly.halfday.TestFirstHalfAppliedAndApprovedForLateEarlyHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LateEarlyHalfDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for LateEarly Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateearly.halfday.TestFirstHalfAppliedAndPendingForLateEarlyHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and approved for LateEarly Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateearly.halfday.TestSecondHalfAppliedAndApprovedForLateEarlyHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and pending for LateEarly Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateearly.halfday.TestSecondHalfAppliedAndPendingForLateEarlyHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and approved for LateEarly Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateearly.halfday.TestFullDayAppliedAndApprovedForLateEarlyHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and pending for LateEarly Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateearly.halfday.TestFullDayAppliedAndPendingForLateEarlyHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when no leave is applied for LateEarly Half day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateearly.halfday.TestForLateEarlyHalfDayDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiple</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Check Leave deductions when user satisfies both </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">late </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">duration and early duration</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.multiple.lateduration.TestLateDurationAndEarlyDurationDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,2</t>
+  </si>
+  <si>
     <t xml:space="preserve">yes</t>
   </si>
   <si>
-    <t xml:space="preserve">72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for Late Mark Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.fullday.TestFirstHalfAppliedAndPendingForLateMarkFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and approved for Late Mark Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.fullday.TestSecondHalfAppliedAndApprovedForLateMarkFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and pending for Late Mark Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.fullday.TestSecondHalfAppliedAndPendingForLateMarkFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and approved for Late Mark Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.fullday.TestFullDayAppliedAndApprovedForLateMarkFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and pending for Late Mark Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.fullday.TestFullDayAppliedAndPendingForLateMarkFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when no leave is applied for Late Mark Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.fullday.TestForLateMarkFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and approved for Late Mark Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.halfday.TestFirstHalfAppliedAndApprovedForLateMarkHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LateMarkHalfDay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for Late Mark Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.halfday.TestFirstHalfAppliedAndPendingForLateMarkHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and approved for Late Mark Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.halfday.TestSecondHalfAppliedAndApprovedForLateMarkHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and pending for Late Mark Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.halfday.TestSecondHalfAppliedAndPendingForLateMarkHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and approved for Late Mark Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.halfday.TestFullDayAppliedAndApprovedForLateMarkHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and pending for Late Mark Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.halfday.TestFullDayAppliedAndPendingForLateMarkHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when no leave is applied for Late Mark Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.latemark.halfday.TestForLateMarkHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EarlyMark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and approved for Early Mark Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlymark.fullday.TestFirstHalfAppliedAndApprovedForEarlyMarkFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EarlyMarkFullDay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for Early Mark Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlymark.fullday.TestFirstHalfAppliedAndPendingForEarlyMarkFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and approved for Early Mark Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlymark.fullday.TestSecondHalfAppliedAndApprovedForEarlyMarkFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and pending for Early Mark Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlymark.fullday.TestSecondHalfAppliedAndPendingForEarlyMarkFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and approved for Early Mark Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlymark.fullday.TestFullDayAppliedAndApprovedForEarlyMarkFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and pending for Early Mark Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlymark.fullday.TestFullDayAppliedAndPendingForEarlyMarkFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when no leave is applied for Early Mark Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlymark.fullday.TestForEarlyMarkFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and approved for Early Mark Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlymark.halfday.TestFirstHalfAppliedAndApprovedForEarlyMarkHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EarlyMarkHalfDay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for Early Mark Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlymark.halfday.TestFirstHalfAppliedAndPendingForEarlyMarkHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and approved for Early Mark Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlymark.halfday.TestSecondHalfAppliedAndApprovedForEarlyMarkHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and pending for Early Mark Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlymark.halfday.TestSecondHalfAppliedAndPendingForEarlyMarkHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and approved for Early Mark Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlymark.halfday.TestFullDayAppliedAndApprovedForEarlyMarkHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and pending for Early Mark Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlymark.halfday.TestFullDayAppliedAndPendingForEarlyMarkHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when no leave is applied for Early Mark Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.earlymark.halfday.TestForEarlyMarkHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LateEarly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and approved for LateEarly Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateearly.fullday.TestFirstHalfAppliedAndApprovedForLateEarlyFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LateEarlyFullDay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for LateEarly Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateearly.fullday.TestFirstHalfAppliedAndPendingForLateEarlyFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and approved for LateEarly Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateearly.fullday.TestSecondHalfAppliedAndApprovedForLateEarlyFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and pending for LateEarly Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateearly.fullday.TestSecondHalfAppliedAndPendingForLateEarlyFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and approved for LateEarly Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateearly.fullday.TestFullDayAppliedAndApprovedForLateEarlyFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and pending for LateEarly Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateearly.fullday.TestFullDayAppliedAndPendingForLateEarlyFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when no leave is applied for LateEarly Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateearly.fullday.TestForLateEarlyFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and approved for LateEarly Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateearly.halfday.TestFirstHalfAppliedAndApprovedForLateEarlyHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LateEarlyHalfDay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for LateEarly Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateearly.halfday.TestFirstHalfAppliedAndPendingForLateEarlyHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and approved for LateEarly Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateearly.halfday.TestSecondHalfAppliedAndApprovedForLateEarlyHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and pending for LateEarly Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateearly.halfday.TestSecondHalfAppliedAndPendingForLateEarlyHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and approved for LateEarly Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateearly.halfday.TestFullDayAppliedAndApprovedForLateEarlyHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and pending for LateEarly Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateearly.halfday.TestFullDayAppliedAndPendingForLateEarlyHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when no leave is applied for LateEarly Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.lateearly.halfday.TestForLateEarlyHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiple</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and approved for Multiple Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.multiple.fullday.TestFirstHalfAppliedAndApprovedForFullDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LateEarlyMarkFullDay</t>
-  </si>
-  <si>
     <t xml:space="preserve">114</t>
   </si>
   <si>
-    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for Multiple Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.multiple.fullday.TestFirstHalfAppliedAndPendingForFullDayDeduction</t>
+    <t xml:space="preserve">Check Leave deductions when user satisfies both late duration and early mark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.multiple.lateduration.TestLateDurationAndEarlyMarkDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,4</t>
   </si>
   <si>
     <t xml:space="preserve">115</t>
   </si>
   <si>
-    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and approved for Multiple Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.multiple.fullday.TestSecondHalfAppliedAndApprovedForFullDayDeduction</t>
+    <t xml:space="preserve">Check Leave deductions when user satisfies both late duration and late mark</t>
   </si>
   <si>
     <t xml:space="preserve">116</t>
   </si>
   <si>
-    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and pending for Multiple Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.multiple.fullday.TestSecondHalfAppliedAndPendingForFullDayDeduction</t>
+    <t xml:space="preserve">Check Leave deductions when user satisfies both late duration and late mark in lateplusearly</t>
   </si>
   <si>
     <t xml:space="preserve">117</t>
   </si>
   <si>
-    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and approved for Multiple Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.multiple.fullday.TestFullDayAppliedAndApprovedForFullDayDeduction</t>
+    <t xml:space="preserve">Check Leave deductions when user satisfies both late duration and early mark in lateplusearly</t>
   </si>
   <si>
     <t xml:space="preserve">118</t>
   </si>
   <si>
-    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and pending for Multiple Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.multiple.fullday.TestFullDayAppliedAndPendingForFullDayDeduction</t>
+    <t xml:space="preserve">Check Leave deductions when user satisfies both late duration and work duration</t>
   </si>
   <si>
     <t xml:space="preserve">119</t>
   </si>
   <si>
-    <t xml:space="preserve">Check Leave deductions when no leave is applied for Multiple Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.multiple.fullday.TestForFullDayDeduction</t>
+    <t xml:space="preserve">Check Leave deductions when user satisfies both early duration and late mark</t>
   </si>
   <si>
     <t xml:space="preserve">120</t>
   </si>
   <si>
-    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and approved for Multiple Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.multiple.halfday.TestFirstHalfAppliedAndApprovedForHalfDayDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LateEarlyMarkHalfDay</t>
+    <t xml:space="preserve">Check Leave deductions when user satisfies both early duration and late mark in lateplusearly</t>
   </si>
   <si>
     <t xml:space="preserve">121</t>
   </si>
   <si>
-    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for Multiple Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.multiple.halfday.TestFirstHalfAppliedAndPendingForHalfDayDeduction</t>
+    <t xml:space="preserve">Check Leave deductions when user satisfies both early duration and work duration</t>
   </si>
   <si>
     <t xml:space="preserve">122</t>
   </si>
   <si>
-    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and approved for Multiple Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.multiple.halfday.TestSecondHalfAppliedAndApprovedForHalfDayDeduction</t>
+    <t xml:space="preserve">Check Leave deductions when user satisfies both early duration and early mark in lateplusearly</t>
   </si>
   <si>
     <t xml:space="preserve">123</t>
   </si>
   <si>
-    <t xml:space="preserve">Check Leave deductions when Second Half leave is applied and pending for Multiple Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.multiple.halfday.TestSecondHalfAppliedAndPendingForHalfDayDeduction</t>
-  </si>
-  <si>
     <t xml:space="preserve">124</t>
   </si>
   <si>
-    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and approved for Multiple Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.multiple.halfday.TestFullDayAppliedAndApprovedForHalfDayDeduction</t>
+    <t xml:space="preserve">Check Leave deductions when user satisfies both late mark and early mark</t>
   </si>
   <si>
     <t xml:space="preserve">125</t>
   </si>
   <si>
-    <t xml:space="preserve">Check Leave deductions when Full Day leave is applied and pending for Multiple Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.multiple.halfday.TestFullDayAppliedAndPendingForHalfDayDeduction</t>
+    <t xml:space="preserve">Check Leave deductions when user satisfies both late mark and workduration</t>
   </si>
   <si>
     <t xml:space="preserve">126</t>
   </si>
   <si>
-    <t xml:space="preserve">Check Leave deductions when no leave is applied for Multiple Half day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.multiple.halfday.TestForHalfDayDeduction</t>
+    <t xml:space="preserve">Check Leave deductions when user satisfies both late mark in lateplusearly and workduration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when user satisfies both early mark and workduration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when user satisfies both early mark in lateplusearly and workduration</t>
   </si>
 </sst>
 </file>
@@ -1274,7 +1266,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1302,6 +1294,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1346,7 +1343,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1357,6 +1354,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1376,13 +1377,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J1048576"/>
+  <dimension ref="A1:J129"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A116" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A127" activeCellId="0" sqref="A127"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A102" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E116" activeCellId="0" sqref="E116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="15.84"/>
@@ -3696,12 +3697,12 @@
         <v>18</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>238</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>11</v>
@@ -3713,10 +3714,10 @@
         <v>13</v>
       </c>
       <c r="E73" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="F73" s="0" t="s">
         <v>240</v>
-      </c>
-      <c r="F73" s="0" t="s">
-        <v>241</v>
       </c>
       <c r="G73" s="0" t="s">
         <v>16</v>
@@ -3728,12 +3729,12 @@
         <v>18</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>238</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>11</v>
@@ -3745,10 +3746,10 @@
         <v>13</v>
       </c>
       <c r="E74" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="F74" s="0" t="s">
         <v>243</v>
-      </c>
-      <c r="F74" s="0" t="s">
-        <v>244</v>
       </c>
       <c r="G74" s="0" t="s">
         <v>16</v>
@@ -3760,12 +3761,12 @@
         <v>18</v>
       </c>
       <c r="J74" s="0" t="s">
-        <v>238</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>11</v>
@@ -3777,10 +3778,10 @@
         <v>13</v>
       </c>
       <c r="E75" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="F75" s="0" t="s">
         <v>246</v>
-      </c>
-      <c r="F75" s="0" t="s">
-        <v>247</v>
       </c>
       <c r="G75" s="0" t="s">
         <v>16</v>
@@ -3792,12 +3793,12 @@
         <v>18</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>238</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>11</v>
@@ -3809,10 +3810,10 @@
         <v>13</v>
       </c>
       <c r="E76" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="F76" s="0" t="s">
         <v>249</v>
-      </c>
-      <c r="F76" s="0" t="s">
-        <v>250</v>
       </c>
       <c r="G76" s="0" t="s">
         <v>16</v>
@@ -3824,12 +3825,12 @@
         <v>18</v>
       </c>
       <c r="J76" s="0" t="s">
-        <v>238</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B77" s="0" t="s">
         <v>11</v>
@@ -3841,10 +3842,10 @@
         <v>13</v>
       </c>
       <c r="E77" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="F77" s="0" t="s">
         <v>252</v>
-      </c>
-      <c r="F77" s="0" t="s">
-        <v>253</v>
       </c>
       <c r="G77" s="0" t="s">
         <v>16</v>
@@ -3856,12 +3857,12 @@
         <v>18</v>
       </c>
       <c r="J77" s="0" t="s">
-        <v>238</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>11</v>
@@ -3873,10 +3874,10 @@
         <v>36</v>
       </c>
       <c r="E78" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="F78" s="0" t="s">
         <v>255</v>
-      </c>
-      <c r="F78" s="0" t="s">
-        <v>256</v>
       </c>
       <c r="G78" s="0" t="s">
         <v>16</v>
@@ -3888,12 +3889,12 @@
         <v>18</v>
       </c>
       <c r="J78" s="0" t="s">
-        <v>238</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>11</v>
@@ -3905,27 +3906,27 @@
         <v>13</v>
       </c>
       <c r="E79" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="F79" s="0" t="s">
         <v>258</v>
       </c>
-      <c r="F79" s="0" t="s">
+      <c r="G79" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H79" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="G79" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H79" s="0" t="s">
-        <v>260</v>
-      </c>
       <c r="I79" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J79" s="0" t="s">
-        <v>238</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>11</v>
@@ -3937,27 +3938,27 @@
         <v>13</v>
       </c>
       <c r="E80" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="F80" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="F80" s="0" t="s">
-        <v>263</v>
-      </c>
       <c r="G80" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I80" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J80" s="0" t="s">
-        <v>238</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>11</v>
@@ -3969,27 +3970,27 @@
         <v>13</v>
       </c>
       <c r="E81" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F81" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="F81" s="0" t="s">
-        <v>266</v>
-      </c>
       <c r="G81" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I81" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J81" s="0" t="s">
-        <v>238</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>11</v>
@@ -4001,27 +4002,27 @@
         <v>13</v>
       </c>
       <c r="E82" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="F82" s="0" t="s">
         <v>268</v>
       </c>
-      <c r="F82" s="0" t="s">
-        <v>269</v>
-      </c>
       <c r="G82" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I82" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J82" s="0" t="s">
-        <v>238</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>11</v>
@@ -4033,27 +4034,27 @@
         <v>13</v>
       </c>
       <c r="E83" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="F83" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="F83" s="0" t="s">
-        <v>272</v>
-      </c>
       <c r="G83" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I83" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J83" s="0" t="s">
-        <v>238</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>11</v>
@@ -4065,27 +4066,27 @@
         <v>13</v>
       </c>
       <c r="E84" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="F84" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="F84" s="0" t="s">
-        <v>275</v>
-      </c>
       <c r="G84" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I84" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J84" s="0" t="s">
-        <v>238</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>11</v>
@@ -4097,499 +4098,499 @@
         <v>36</v>
       </c>
       <c r="E85" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="F85" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="F85" s="0" t="s">
-        <v>278</v>
-      </c>
       <c r="G85" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I85" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J85" s="0" t="s">
-        <v>238</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" s="0" t="s">
         <v>279</v>
       </c>
-      <c r="B86" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C86" s="0" t="s">
+      <c r="D86" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="D86" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E86" s="0" t="s">
+      <c r="F86" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="F86" s="0" t="s">
+      <c r="G86" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H86" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="G86" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H86" s="0" t="s">
-        <v>283</v>
-      </c>
       <c r="I86" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J86" s="0" t="s">
-        <v>238</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="B87" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C87" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="D87" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E87" s="0" t="s">
+      <c r="F87" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="F87" s="0" t="s">
-        <v>286</v>
-      </c>
       <c r="G87" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I87" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J87" s="0" t="s">
-        <v>238</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="B88" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C88" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="D88" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E88" s="0" t="s">
+      <c r="F88" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="F88" s="0" t="s">
-        <v>289</v>
-      </c>
       <c r="G88" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H88" s="0" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I88" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J88" s="0" t="s">
-        <v>238</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="B89" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C89" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="D89" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E89" s="0" t="s">
+      <c r="F89" s="0" t="s">
         <v>291</v>
       </c>
-      <c r="F89" s="0" t="s">
-        <v>292</v>
-      </c>
       <c r="G89" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H89" s="0" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I89" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J89" s="0" t="s">
-        <v>238</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="B90" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C90" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="D90" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E90" s="0" t="s">
+      <c r="F90" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="F90" s="0" t="s">
-        <v>295</v>
-      </c>
       <c r="G90" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I90" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J90" s="0" t="s">
-        <v>238</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="B91" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C91" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="D91" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E91" s="0" t="s">
+      <c r="F91" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="F91" s="0" t="s">
-        <v>298</v>
-      </c>
       <c r="G91" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I91" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J91" s="0" t="s">
-        <v>238</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D92" s="0" t="s">
         <v>36</v>
       </c>
       <c r="E92" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="F92" s="0" t="s">
         <v>300</v>
       </c>
-      <c r="F92" s="0" t="s">
-        <v>301</v>
-      </c>
       <c r="G92" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I92" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J92" s="0" t="s">
-        <v>238</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93" s="0" t="s">
         <v>302</v>
       </c>
-      <c r="B93" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C93" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="D93" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E93" s="0" t="s">
+      <c r="F93" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="F93" s="0" t="s">
+      <c r="G93" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H93" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="G93" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H93" s="0" t="s">
-        <v>305</v>
-      </c>
       <c r="I93" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J93" s="0" t="s">
-        <v>238</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E94" s="0" t="s">
         <v>306</v>
       </c>
-      <c r="B94" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C94" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="D94" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E94" s="0" t="s">
+      <c r="F94" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="F94" s="0" t="s">
-        <v>308</v>
-      </c>
       <c r="G94" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H94" s="0" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I94" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J94" s="0" t="s">
-        <v>238</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E95" s="0" t="s">
         <v>309</v>
       </c>
-      <c r="B95" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C95" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="D95" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E95" s="0" t="s">
+      <c r="F95" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="F95" s="0" t="s">
-        <v>311</v>
-      </c>
       <c r="G95" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H95" s="0" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I95" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J95" s="0" t="s">
-        <v>238</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E96" s="0" t="s">
         <v>312</v>
       </c>
-      <c r="B96" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C96" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="D96" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E96" s="0" t="s">
+      <c r="F96" s="0" t="s">
         <v>313</v>
       </c>
-      <c r="F96" s="0" t="s">
-        <v>314</v>
-      </c>
       <c r="G96" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H96" s="0" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I96" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J96" s="0" t="s">
-        <v>238</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="D97" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E97" s="0" t="s">
         <v>315</v>
       </c>
-      <c r="B97" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C97" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="D97" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E97" s="0" t="s">
+      <c r="F97" s="0" t="s">
         <v>316</v>
       </c>
-      <c r="F97" s="0" t="s">
-        <v>317</v>
-      </c>
       <c r="G97" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H97" s="0" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I97" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J97" s="0" t="s">
-        <v>238</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E98" s="0" t="s">
         <v>318</v>
       </c>
-      <c r="B98" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C98" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="D98" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E98" s="0" t="s">
+      <c r="F98" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="F98" s="0" t="s">
-        <v>320</v>
-      </c>
       <c r="G98" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I98" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J98" s="0" t="s">
-        <v>238</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B99" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D99" s="0" t="s">
         <v>36</v>
       </c>
       <c r="E99" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="F99" s="0" t="s">
         <v>322</v>
       </c>
-      <c r="F99" s="0" t="s">
-        <v>323</v>
-      </c>
       <c r="G99" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H99" s="0" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I99" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J99" s="0" t="s">
-        <v>238</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" s="0" t="s">
         <v>324</v>
       </c>
-      <c r="B100" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C100" s="0" t="s">
+      <c r="D100" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E100" s="0" t="s">
         <v>325</v>
       </c>
-      <c r="D100" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E100" s="0" t="s">
+      <c r="F100" s="0" t="s">
         <v>326</v>
       </c>
-      <c r="F100" s="0" t="s">
+      <c r="G100" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H100" s="0" t="s">
         <v>327</v>
       </c>
-      <c r="G100" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H100" s="0" t="s">
-        <v>328</v>
-      </c>
       <c r="I100" s="0" t="s">
-        <v>329</v>
+        <v>18</v>
       </c>
       <c r="J100" s="0" t="s">
         <v>19</v>
@@ -4597,31 +4598,31 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E101" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="F101" s="0" t="s">
         <v>330</v>
       </c>
-      <c r="B101" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C101" s="0" t="s">
-        <v>325</v>
-      </c>
-      <c r="D101" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E101" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="F101" s="0" t="s">
-        <v>332</v>
-      </c>
       <c r="G101" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H101" s="0" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I101" s="0" t="s">
-        <v>329</v>
+        <v>18</v>
       </c>
       <c r="J101" s="0" t="s">
         <v>19</v>
@@ -4629,31 +4630,31 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E102" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="F102" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="B102" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C102" s="0" t="s">
-        <v>325</v>
-      </c>
-      <c r="D102" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E102" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="F102" s="0" t="s">
-        <v>335</v>
-      </c>
       <c r="G102" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H102" s="0" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>329</v>
+        <v>18</v>
       </c>
       <c r="J102" s="0" t="s">
         <v>19</v>
@@ -4661,31 +4662,31 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="D103" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E103" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="F103" s="0" t="s">
         <v>336</v>
       </c>
-      <c r="B103" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C103" s="0" t="s">
-        <v>325</v>
-      </c>
-      <c r="D103" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E103" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="F103" s="0" t="s">
-        <v>338</v>
-      </c>
       <c r="G103" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H103" s="0" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I103" s="0" t="s">
-        <v>329</v>
+        <v>18</v>
       </c>
       <c r="J103" s="0" t="s">
         <v>19</v>
@@ -4693,31 +4694,31 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E104" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="F104" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="B104" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C104" s="0" t="s">
-        <v>325</v>
-      </c>
-      <c r="D104" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E104" s="0" t="s">
-        <v>340</v>
-      </c>
-      <c r="F104" s="0" t="s">
-        <v>341</v>
-      </c>
       <c r="G104" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H104" s="0" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I104" s="0" t="s">
-        <v>329</v>
+        <v>18</v>
       </c>
       <c r="J104" s="0" t="s">
         <v>19</v>
@@ -4725,31 +4726,31 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="D105" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E105" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="F105" s="0" t="s">
         <v>342</v>
       </c>
-      <c r="B105" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C105" s="0" t="s">
-        <v>325</v>
-      </c>
-      <c r="D105" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E105" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="F105" s="0" t="s">
-        <v>344</v>
-      </c>
       <c r="G105" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I105" s="0" t="s">
-        <v>329</v>
+        <v>18</v>
       </c>
       <c r="J105" s="0" t="s">
         <v>19</v>
@@ -4757,31 +4758,31 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B106" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D106" s="0" t="s">
         <v>36</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G106" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I106" s="0" t="s">
-        <v>329</v>
+        <v>18</v>
       </c>
       <c r="J106" s="0" t="s">
         <v>19</v>
@@ -4789,31 +4790,31 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="D107" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E107" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="F107" s="0" t="s">
         <v>348</v>
       </c>
-      <c r="B107" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C107" s="0" t="s">
-        <v>325</v>
-      </c>
-      <c r="D107" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E107" s="0" t="s">
+      <c r="G107" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H107" s="0" t="s">
         <v>349</v>
       </c>
-      <c r="F107" s="0" t="s">
-        <v>350</v>
-      </c>
-      <c r="G107" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H107" s="0" t="s">
-        <v>351</v>
-      </c>
       <c r="I107" s="0" t="s">
-        <v>329</v>
+        <v>18</v>
       </c>
       <c r="J107" s="0" t="s">
         <v>19</v>
@@ -4821,31 +4822,31 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E108" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="F108" s="0" t="s">
         <v>352</v>
       </c>
-      <c r="B108" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C108" s="0" t="s">
-        <v>325</v>
-      </c>
-      <c r="D108" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E108" s="0" t="s">
-        <v>353</v>
-      </c>
-      <c r="F108" s="0" t="s">
-        <v>354</v>
-      </c>
       <c r="G108" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I108" s="0" t="s">
-        <v>329</v>
+        <v>18</v>
       </c>
       <c r="J108" s="0" t="s">
         <v>19</v>
@@ -4853,31 +4854,31 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="D109" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E109" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="F109" s="0" t="s">
         <v>355</v>
       </c>
-      <c r="B109" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C109" s="0" t="s">
-        <v>325</v>
-      </c>
-      <c r="D109" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E109" s="0" t="s">
-        <v>356</v>
-      </c>
-      <c r="F109" s="0" t="s">
-        <v>357</v>
-      </c>
       <c r="G109" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H109" s="0" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I109" s="0" t="s">
-        <v>329</v>
+        <v>18</v>
       </c>
       <c r="J109" s="0" t="s">
         <v>19</v>
@@ -4885,31 +4886,31 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="D110" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E110" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="F110" s="0" t="s">
         <v>358</v>
       </c>
-      <c r="B110" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C110" s="0" t="s">
-        <v>325</v>
-      </c>
-      <c r="D110" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E110" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="F110" s="0" t="s">
-        <v>360</v>
-      </c>
       <c r="G110" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H110" s="0" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I110" s="0" t="s">
-        <v>329</v>
+        <v>18</v>
       </c>
       <c r="J110" s="0" t="s">
         <v>19</v>
@@ -4917,31 +4918,31 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="D111" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E111" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="F111" s="0" t="s">
         <v>361</v>
       </c>
-      <c r="B111" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C111" s="0" t="s">
-        <v>325</v>
-      </c>
-      <c r="D111" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E111" s="0" t="s">
-        <v>362</v>
-      </c>
-      <c r="F111" s="0" t="s">
-        <v>363</v>
-      </c>
       <c r="G111" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I111" s="0" t="s">
-        <v>329</v>
+        <v>18</v>
       </c>
       <c r="J111" s="0" t="s">
         <v>19</v>
@@ -4949,31 +4950,31 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="D112" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E112" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="F112" s="0" t="s">
         <v>364</v>
       </c>
-      <c r="B112" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C112" s="0" t="s">
-        <v>325</v>
-      </c>
-      <c r="D112" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E112" s="0" t="s">
-        <v>365</v>
-      </c>
-      <c r="F112" s="0" t="s">
-        <v>366</v>
-      </c>
       <c r="G112" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H112" s="0" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I112" s="0" t="s">
-        <v>329</v>
+        <v>18</v>
       </c>
       <c r="J112" s="0" t="s">
         <v>19</v>
@@ -4981,31 +4982,31 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B113" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D113" s="0" t="s">
         <v>36</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G113" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H113" s="0" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I113" s="0" t="s">
-        <v>329</v>
+        <v>18</v>
       </c>
       <c r="J113" s="0" t="s">
         <v>19</v>
@@ -5013,66 +5014,66 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="D114" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E114" s="0" t="s">
         <v>370</v>
       </c>
-      <c r="B114" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C114" s="0" t="s">
+      <c r="F114" s="0" t="s">
         <v>371</v>
       </c>
-      <c r="D114" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E114" s="0" t="s">
+      <c r="G114" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H114" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="I114" s="0" t="s">
         <v>372</v>
       </c>
-      <c r="F114" s="0" t="s">
+      <c r="J114" s="0" t="s">
         <v>373</v>
-      </c>
-      <c r="G114" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H114" s="0" t="s">
-        <v>374</v>
-      </c>
-      <c r="I114" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="J114" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="D115" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E115" s="0" t="s">
         <v>375</v>
       </c>
-      <c r="B115" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C115" s="0" t="s">
-        <v>371</v>
-      </c>
-      <c r="D115" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E115" s="0" t="s">
+      <c r="F115" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="F115" s="0" t="s">
+      <c r="G115" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H115" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="I115" s="0" t="s">
         <v>377</v>
       </c>
-      <c r="G115" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H115" s="0" t="s">
-        <v>374</v>
-      </c>
-      <c r="I115" s="0" t="s">
-        <v>329</v>
-      </c>
       <c r="J115" s="0" t="s">
-        <v>19</v>
+        <v>373</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5083,386 +5084,197 @@
         <v>11</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E116" s="0" t="s">
         <v>379</v>
       </c>
-      <c r="F116" s="0" t="s">
-        <v>380</v>
-      </c>
-      <c r="G116" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H116" s="0" t="s">
-        <v>374</v>
-      </c>
-      <c r="I116" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="J116" s="0" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="D117" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E117" s="0" t="s">
         <v>381</v>
-      </c>
-      <c r="B117" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C117" s="0" t="s">
-        <v>371</v>
-      </c>
-      <c r="D117" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E117" s="0" t="s">
-        <v>382</v>
-      </c>
-      <c r="F117" s="0" t="s">
-        <v>383</v>
-      </c>
-      <c r="G117" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H117" s="0" t="s">
-        <v>374</v>
-      </c>
-      <c r="I117" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="J117" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B118" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>385</v>
-      </c>
-      <c r="F118" s="0" t="s">
-        <v>386</v>
-      </c>
-      <c r="G118" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H118" s="0" t="s">
-        <v>374</v>
-      </c>
-      <c r="I118" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="J118" s="0" t="s">
-        <v>19</v>
+        <v>383</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B119" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>388</v>
-      </c>
-      <c r="F119" s="0" t="s">
-        <v>389</v>
-      </c>
-      <c r="G119" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H119" s="0" t="s">
-        <v>374</v>
-      </c>
-      <c r="I119" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="J119" s="0" t="s">
-        <v>19</v>
+        <v>385</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B120" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D120" s="0" t="s">
         <v>36</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>391</v>
-      </c>
-      <c r="F120" s="0" t="s">
-        <v>392</v>
-      </c>
-      <c r="G120" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H120" s="0" t="s">
-        <v>374</v>
-      </c>
-      <c r="I120" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="J120" s="0" t="s">
-        <v>19</v>
+        <v>387</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B121" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>394</v>
-      </c>
-      <c r="F121" s="0" t="s">
-        <v>395</v>
-      </c>
-      <c r="G121" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H121" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="I121" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="J121" s="0" t="s">
-        <v>19</v>
+        <v>389</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="B122" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>398</v>
-      </c>
-      <c r="F122" s="0" t="s">
-        <v>399</v>
-      </c>
-      <c r="G122" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H122" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="I122" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="J122" s="0" t="s">
-        <v>19</v>
+        <v>391</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="B123" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>401</v>
-      </c>
-      <c r="F123" s="0" t="s">
-        <v>402</v>
-      </c>
-      <c r="G123" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H123" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="I123" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="J123" s="0" t="s">
-        <v>19</v>
+        <v>393</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="B124" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>404</v>
-      </c>
-      <c r="F124" s="0" t="s">
-        <v>405</v>
-      </c>
-      <c r="G124" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H124" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="I124" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="J124" s="0" t="s">
-        <v>19</v>
+        <v>389</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="B125" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>407</v>
-      </c>
-      <c r="F125" s="0" t="s">
-        <v>408</v>
-      </c>
-      <c r="G125" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H125" s="0" t="s">
         <v>396</v>
-      </c>
-      <c r="I125" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="J125" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>409</v>
-      </c>
-      <c r="B126" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C126" s="0" t="s">
-        <v>371</v>
-      </c>
-      <c r="D126" s="0" t="s">
-        <v>13</v>
+        <v>397</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="F126" s="0" t="s">
-        <v>411</v>
-      </c>
-      <c r="G126" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H126" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="I126" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="J126" s="0" t="s">
-        <v>19</v>
+        <v>398</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>412</v>
-      </c>
-      <c r="B127" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C127" s="0" t="s">
-        <v>371</v>
-      </c>
-      <c r="D127" s="0" t="s">
-        <v>36</v>
+        <v>399</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>413</v>
-      </c>
-      <c r="F127" s="0" t="s">
-        <v>414</v>
-      </c>
-      <c r="G127" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H127" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="I127" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="J127" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="E128" s="0" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E129" s="0" t="s">
+        <v>403</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/attendance/src/main/resources/LeaveDeductions.xlsx
+++ b/attendance/src/main/resources/LeaveDeductions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="428">
   <si>
     <t xml:space="preserve">TCID</t>
   </si>
@@ -79,18 +79,21 @@
     <t xml:space="preserve">All</t>
   </si>
   <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for Absent Full day deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.absent.fullday.TestFirstHalfAppliedAndPendingForAbsentFullDayDeduction</t>
+  </si>
+  <si>
     <t xml:space="preserve">no</t>
   </si>
   <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when First Half leave is applied and pending for Absent Full day deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.absent.fullday.TestFirstHalfAppliedAndPendingForAbsentFullDayDeduction</t>
-  </si>
-  <si>
     <t xml:space="preserve">3</t>
   </si>
   <si>
@@ -1130,133 +1133,195 @@
   </si>
   <si>
     <t xml:space="preserve">Multiple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when user satisfies both late duration and early duration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.multiple.lateduration.TestLateDurationAndEarlyDurationDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when user satisfies both late duration and early mark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.multiple.lateduration.TestLateDurationAndEarlyMarkDeduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when user satisfies both late duration and late mark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when user satisfies both late duration and work duration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when user satisfies both late duration and late mark in lateplusearly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when user satisfies both late duration and early mark in lateplusearly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when user satisfies both early duration and late mark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when user satisfies both early duration and early mark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when user satisfies both early duration and work duration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when user satisfies both early duration and late mark in lateplusearly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when user satisfies both early duration and early mark in lateplusearly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when user satisfies both late mark and early mark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when user satisfies both late mark and workduration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when user satisfies both early mark and workduration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when user satisfies both late mark in lateplusearly and workduration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when user satisfies both early mark in lateplusearly and workduration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SortOrder</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.sortorder.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Check Leave deductions when user satisfies both </t>
+      <t xml:space="preserve">TestFirstHalfAppliedAndApprovedForAbsentFullDayDeduction</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">late </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">duration and early duration</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.multiple.lateduration.TestLateDurationAndEarlyDurationDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when user satisfies both late duration and early mark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.darwinbox.attendance.leavedeductions.multiple.lateduration.TestLateDurationAndEarlyMarkDeduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when user satisfies both late duration and late mark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when user satisfies both late duration and late mark in lateplusearly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when user satisfies both late duration and early mark in lateplusearly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when user satisfies both late duration and work duration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when user satisfies both early duration and late mark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when user satisfies both early duration and late mark in lateplusearly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when user satisfies both early duration and work duration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when user satisfies both early duration and early mark in lateplusearly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when user satisfies both late mark and early mark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when user satisfies both late mark and workduration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when user satisfies both late mark in lateplusearly and workduration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when user satisfies both early mark and workduration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Leave deductions when user satisfies both early mark in lateplusearly and workduration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when user satisfies both workduration and late mark </t>
+  </si>
+  <si>
+    <t xml:space="preserve">142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when user satisfies both workduration and early mark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when user satisfies both workduration and late mark in lateplusearly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Leave deductions when user satisfies both workduration and early mark in lateplusearly</t>
   </si>
 </sst>
 </file>
@@ -1266,7 +1331,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1297,8 +1362,16 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1343,7 +1416,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1357,6 +1430,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1377,10 +1454,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J129"/>
+  <dimension ref="A1:J145"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A102" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E116" activeCellId="0" sqref="E116"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A126" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A130" activeCellId="0" sqref="A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1489,12 +1566,12 @@
         <v>18</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>11</v>
@@ -1506,10 +1583,10 @@
         <v>13</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>16</v>
@@ -1521,12 +1598,12 @@
         <v>18</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>11</v>
@@ -1538,10 +1615,10 @@
         <v>13</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>16</v>
@@ -1553,12 +1630,12 @@
         <v>18</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>11</v>
@@ -1570,10 +1647,10 @@
         <v>13</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>16</v>
@@ -1585,12 +1662,12 @@
         <v>18</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>11</v>
@@ -1602,10 +1679,10 @@
         <v>13</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>16</v>
@@ -1617,12 +1694,12 @@
         <v>18</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>11</v>
@@ -1631,13 +1708,13 @@
         <v>12</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>16</v>
@@ -1649,12 +1726,12 @@
         <v>18</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>11</v>
@@ -1666,27 +1743,27 @@
         <v>13</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>11</v>
@@ -1698,27 +1775,27 @@
         <v>13</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>11</v>
@@ -1730,27 +1807,27 @@
         <v>13</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I11" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>11</v>
@@ -1762,27 +1839,27 @@
         <v>13</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>11</v>
@@ -1794,27 +1871,27 @@
         <v>13</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G13" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I13" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>11</v>
@@ -1826,27 +1903,27 @@
         <v>13</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I14" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>11</v>
@@ -1855,3193 +1932,3193 @@
         <v>12</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G15" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I15" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>62</v>
-      </c>
       <c r="I16" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G17" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I17" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G18" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I18" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G19" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I19" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G20" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I20" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G21" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I21" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G22" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I22" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G23" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I23" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G24" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I24" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G25" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I25" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G26" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I26" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G27" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I27" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G28" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I28" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G29" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I29" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="F30" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="I30" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G31" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I31" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G32" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I32" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G33" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I33" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G34" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I34" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G35" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I35" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G36" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I36" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D37" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G37" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I37" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G38" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I38" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G39" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I39" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G40" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I40" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G41" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I41" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G42" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I42" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G43" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I43" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E44" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="F44" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="G44" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H44" s="0" t="s">
-        <v>148</v>
-      </c>
       <c r="I44" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G45" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I45" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G46" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I46" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D47" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G47" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I47" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D48" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G48" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I48" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G49" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I49" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G50" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I50" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D51" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G51" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I51" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G52" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I52" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G53" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I53" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G54" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I54" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G55" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I55" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G56" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I56" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G57" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I57" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E58" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="G58" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H58" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="F58" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="G58" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H58" s="0" t="s">
-        <v>191</v>
-      </c>
       <c r="I58" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D59" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G59" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I59" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D60" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G60" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I60" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D61" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G61" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I61" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D62" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G62" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I62" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B63" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G63" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I63" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B64" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G64" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I64" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B65" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D65" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G65" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I65" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D66" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G66" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I66" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B67" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D67" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G67" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I67" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B68" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D68" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G68" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I68" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B69" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D69" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G69" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I69" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B70" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D70" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G70" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I70" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B71" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G71" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I71" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B72" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D72" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G72" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I72" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="F73" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="G73" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H73" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="B73" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C73" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="D73" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E73" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="F73" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="G73" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H73" s="0" t="s">
-        <v>237</v>
-      </c>
       <c r="I73" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D74" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G74" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I74" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J74" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D75" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G75" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I75" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D76" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G76" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I76" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J76" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B77" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D77" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G77" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I77" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J77" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G78" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I78" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J78" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D79" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G79" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I79" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J79" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="F80" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="G80" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H80" s="0" t="s">
         <v>260</v>
       </c>
-      <c r="B80" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C80" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="D80" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E80" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="F80" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="G80" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H80" s="0" t="s">
-        <v>259</v>
-      </c>
       <c r="I80" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J80" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D81" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G81" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I81" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J81" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G82" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I82" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J82" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D83" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G83" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I83" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J83" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D84" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G84" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I84" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J84" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G85" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I85" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J85" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D86" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G86" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I86" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J86" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="F87" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="G87" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H87" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="B87" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C87" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="D87" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E87" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="F87" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="G87" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H87" s="0" t="s">
-        <v>282</v>
-      </c>
       <c r="I87" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J87" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D88" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G88" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H88" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I88" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J88" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D89" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G89" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H89" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I89" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J89" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D90" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G90" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I90" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J90" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D91" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G91" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I91" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J91" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G92" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I92" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J92" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D93" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G93" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H93" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I93" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J93" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E94" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="F94" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="G94" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H94" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="B94" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C94" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="D94" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E94" s="0" t="s">
-        <v>306</v>
-      </c>
-      <c r="F94" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="G94" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H94" s="0" t="s">
-        <v>304</v>
-      </c>
       <c r="I94" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J94" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D95" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G95" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H95" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I95" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J95" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D96" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G96" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H96" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I96" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J96" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D97" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G97" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H97" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I97" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J97" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B98" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D98" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G98" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I98" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J98" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B99" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G99" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H99" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I99" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J99" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D100" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G100" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H100" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I100" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J100" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E101" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="F101" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="G101" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H101" s="0" t="s">
         <v>328</v>
       </c>
-      <c r="B101" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C101" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="D101" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E101" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="F101" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="G101" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H101" s="0" t="s">
-        <v>327</v>
-      </c>
       <c r="I101" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J101" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B102" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D102" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G102" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H102" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I102" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J102" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B103" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D103" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G103" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H103" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I103" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J103" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B104" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D104" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G104" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H104" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I104" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J104" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B105" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D105" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G105" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I105" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J105" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B106" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G106" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I106" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J106" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B107" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D107" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G107" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H107" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I107" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J107" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E108" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="F108" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="G108" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H108" s="0" t="s">
         <v>350</v>
       </c>
-      <c r="B108" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C108" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="D108" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E108" s="0" t="s">
-        <v>351</v>
-      </c>
-      <c r="F108" s="0" t="s">
-        <v>352</v>
-      </c>
-      <c r="G108" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H108" s="0" t="s">
-        <v>349</v>
-      </c>
       <c r="I108" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J108" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B109" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D109" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G109" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H109" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I109" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J109" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B110" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D110" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G110" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H110" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I110" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J110" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B111" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D111" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G111" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I111" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J111" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B112" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D112" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F112" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G112" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H112" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I112" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J112" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B113" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G113" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H113" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I113" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J113" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B114" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E114" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="F114" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="G114" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H114" s="0" t="s">
         <v>370</v>
       </c>
-      <c r="F114" s="0" t="s">
-        <v>371</v>
-      </c>
-      <c r="G114" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H114" s="0" t="s">
-        <v>369</v>
-      </c>
       <c r="I114" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="J114" s="0" t="s">
-        <v>373</v>
+        <v>19</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5052,10 +5129,10 @@
         <v>11</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E115" s="0" t="s">
         <v>375</v>
@@ -5067,13 +5144,13 @@
         <v>16</v>
       </c>
       <c r="H115" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I115" s="0" t="s">
         <v>377</v>
       </c>
       <c r="J115" s="0" t="s">
-        <v>373</v>
+        <v>19</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5084,13 +5161,28 @@
         <v>11</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E116" s="0" t="s">
         <v>379</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="G116" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H116" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="I116" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J116" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5101,13 +5193,28 @@
         <v>11</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E117" s="0" t="s">
         <v>381</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="G117" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H117" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="I117" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J117" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5118,13 +5225,28 @@
         <v>11</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E118" s="0" t="s">
         <v>383</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="G118" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H118" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="I118" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J118" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5135,13 +5257,28 @@
         <v>11</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E119" s="0" t="s">
         <v>385</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="G119" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H119" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="I119" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J119" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5152,13 +5289,28 @@
         <v>11</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E120" s="0" t="s">
         <v>387</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="G120" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H120" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="I120" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J120" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5169,13 +5321,28 @@
         <v>11</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E121" s="0" t="s">
         <v>389</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="G121" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H121" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="I121" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J121" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5186,13 +5353,28 @@
         <v>11</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E122" s="0" t="s">
         <v>391</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="G122" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H122" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="I122" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J122" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5203,13 +5385,28 @@
         <v>11</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E123" s="0" t="s">
         <v>393</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="G123" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H123" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="I123" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J123" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5220,59 +5417,700 @@
         <v>11</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>389</v>
+        <v>395</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="G124" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H124" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="I124" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J124" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B125" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="G125" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H125" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="I125" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J125" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="D126" s="0" t="s">
+        <v>37</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="G126" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H126" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="I126" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J126" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="D127" s="0" t="s">
+        <v>37</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="G127" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H127" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="I127" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J127" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="D128" s="0" t="s">
+        <v>37</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="G128" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H128" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="I128" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J128" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="D129" s="0" t="s">
+        <v>37</v>
+      </c>
       <c r="E129" s="0" t="s">
-        <v>403</v>
+        <v>405</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="G129" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H129" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="I129" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J129" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="D130" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E130" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="G130" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H130" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="I130" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J130" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="D131" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E131" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="G131" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H131" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="I131" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="J131" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C132" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="D132" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E132" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="G132" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H132" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="I132" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J132" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C133" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="D133" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E133" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="G133" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H133" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="I133" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J133" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="D134" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E134" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="G134" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H134" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="I134" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J134" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="D135" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E135" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="G135" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H135" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="I135" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J135" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C136" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="D136" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E136" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="G136" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H136" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="I136" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J136" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="D137" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E137" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="G137" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H137" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="I137" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J137" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="D138" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E138" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="G138" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H138" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="I138" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J138" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="D139" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E139" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="G139" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H139" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="I139" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J139" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="B140" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="D140" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E140" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="G140" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H140" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="I140" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J140" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="B141" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="D141" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E141" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="G141" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H141" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="I141" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J141" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="B142" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="D142" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E142" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="G142" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H142" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="I142" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J142" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="B143" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C143" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="D143" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E143" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="G143" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H143" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="I143" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J143" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C144" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="D144" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E144" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="G144" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H144" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="I144" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J144" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="B145" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C145" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="D145" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E145" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="G145" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H145" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="I145" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J145" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
